--- a/pm10/_01processing/_01code/_06-1average.xlsx
+++ b/pm10/_01processing/_01code/_06-1average.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="10755" windowHeight="10080" activeTab="4"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="10755" windowHeight="10020" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="dec30" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="46">
   <si>
     <t>varVec.i.</t>
   </si>
@@ -139,13 +139,49 @@
     <t>PM10</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
+  <si>
+    <t>MAX_WATER_PRES</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUM_PRECI</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUM_SUN</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEAN_WIND_SPED</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>BEIJIING_PM2.5_STD</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHANGHAI_PM2.5_STD</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>BEIJING_AQI</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIANJIN_AQI</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>BEIJING_PM2.5</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0.000"/>
+    <numFmt numFmtId="176" formatCode="0.000"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -309,7 +345,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -487,6 +523,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -734,11 +776,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -763,6 +805,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1110,7 +1155,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J21"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1152,32 +1197,32 @@
         <v>9</v>
       </c>
       <c r="B2" s="1">
-        <v>-1.82987260757145</v>
+        <v>-2.2383169222122801</v>
       </c>
       <c r="C2" s="1">
-        <v>-2.8456981483533301</v>
+        <v>-2.22942623606097</v>
       </c>
       <c r="D2" s="1">
-        <v>-1.3424975501340299</v>
+        <v>-2.0384206513727698</v>
       </c>
       <c r="E2" s="1">
-        <v>-2.7611639890122901</v>
+        <v>-2.4423047016675699</v>
       </c>
       <c r="F2" s="1">
-        <v>0.116872356694482</v>
+        <v>-0.85179473949604601</v>
       </c>
       <c r="G2" s="1">
-        <v>-2.0354405281429</v>
+        <v>-0.90720021098581305</v>
       </c>
       <c r="H2" s="1">
-        <v>0.386831782164404</v>
+        <v>-0.85444743340160301</v>
       </c>
       <c r="I2" s="1">
-        <v>0.48165030453905999</v>
+        <v>-1.18348882809945</v>
       </c>
       <c r="J2" s="1">
         <f>AVERAGE(B2:D2,I2)</f>
-        <v>-1.3841045003799375</v>
+        <v>-1.9224131594363676</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -1185,32 +1230,32 @@
         <v>10</v>
       </c>
       <c r="B3" s="1">
-        <v>5.4578378833820301E-2</v>
+        <v>-0.36170633809700498</v>
       </c>
       <c r="C3" s="1">
-        <v>-0.36063465643249698</v>
+        <v>0.27140058080940599</v>
       </c>
       <c r="D3" s="1">
-        <v>1.41477418151687</v>
+        <v>0.69940147891179605</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.43903927124648501</v>
+        <v>-0.112565423063665</v>
       </c>
       <c r="F3" s="1">
-        <v>0.91277736322190095</v>
+        <v>-6.3590402929326606E-2</v>
       </c>
       <c r="G3" s="1">
-        <v>-1.0627542103307801</v>
+        <v>7.6688361249937706E-2</v>
       </c>
       <c r="H3" s="1">
-        <v>1.55734334785618</v>
+        <v>0.30159080294728002</v>
       </c>
       <c r="I3" s="1">
-        <v>1.59880377512937</v>
+        <v>-8.4848349238528298E-2</v>
       </c>
       <c r="J3" s="1">
         <f t="shared" ref="J3:J17" si="0">AVERAGE(B3:D3,I3)</f>
-        <v>0.67688041976189073</v>
+        <v>0.13106184309641716</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -1218,32 +1263,32 @@
         <v>11</v>
       </c>
       <c r="B4" s="1">
-        <v>1.23387974664967</v>
+        <v>0.81268845628630304</v>
       </c>
       <c r="C4" s="1">
-        <v>4.1980342874098797E-2</v>
+        <v>0.67656945895421505</v>
       </c>
       <c r="D4" s="1">
-        <v>1.0058266444597601</v>
+        <v>0.29333862909251102</v>
       </c>
       <c r="E4" s="1">
-        <v>0.27296542218218001</v>
+        <v>0.601774029998559</v>
       </c>
       <c r="F4" s="1">
-        <v>1.5059721659592</v>
+        <v>0.52386502468051399</v>
       </c>
       <c r="G4" s="1">
-        <v>-0.67507080683851595</v>
+        <v>0.46883664518948898</v>
       </c>
       <c r="H4" s="1">
-        <v>2.1189718237628599</v>
+        <v>0.85627476490092302</v>
       </c>
       <c r="I4" s="1">
-        <v>2.4504621366469999</v>
+        <v>0.75269669247291204</v>
       </c>
       <c r="J4" s="1">
         <f t="shared" si="0"/>
-        <v>1.183037217657632</v>
+        <v>0.63382330920148533</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -1251,32 +1296,32 @@
         <v>12</v>
       </c>
       <c r="B5" s="1">
-        <v>-2.1229422415480799</v>
+        <v>-2.5301672175879402</v>
       </c>
       <c r="C5" s="1">
-        <v>-2.3420154882009201</v>
+        <v>-1.7225486018287199</v>
       </c>
       <c r="D5" s="1">
-        <v>-0.723636493840081</v>
+        <v>-1.42392499755544</v>
       </c>
       <c r="E5" s="1">
-        <v>-2.61913149970718</v>
+        <v>-2.2998064686310702</v>
       </c>
       <c r="F5" s="1">
-        <v>-1.8973077491603201E-2</v>
+        <v>-0.98632581977587896</v>
       </c>
       <c r="G5" s="1">
-        <v>-1.49376476447953</v>
+        <v>-0.35928606439409599</v>
       </c>
       <c r="H5" s="1">
-        <v>1.0759855023907701</v>
+        <v>-0.17381507174449101</v>
       </c>
       <c r="I5" s="1">
-        <v>1.2438858840854301</v>
+        <v>-0.43388469208476399</v>
       </c>
       <c r="J5" s="1">
         <f t="shared" si="0"/>
-        <v>-0.9861770848759126</v>
+        <v>-1.5276313772642158</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -1284,32 +1329,32 @@
         <v>13</v>
       </c>
       <c r="B6" s="1">
-        <v>1.1834805667860899</v>
+        <v>0.76249896606075196</v>
       </c>
       <c r="C6" s="1">
-        <v>-2.0539949534726398</v>
+        <v>-1.4327010871074599</v>
       </c>
       <c r="D6" s="1">
-        <v>4.4673854326714002</v>
+        <v>3.7304798244481301</v>
       </c>
       <c r="E6" s="1">
-        <v>1.9456911700653601</v>
+        <v>2.2799848717164002</v>
       </c>
       <c r="F6" s="1">
-        <v>1.5153683751471101</v>
+        <v>0.53317032213242199</v>
       </c>
       <c r="G6" s="1">
-        <v>-0.34770361305568398</v>
+        <v>0.79997406841582197</v>
       </c>
       <c r="H6" s="1">
-        <v>1.08481630728286</v>
+        <v>-0.16509345940658701</v>
       </c>
       <c r="I6" s="1">
-        <v>2.3992346602391001</v>
+        <v>0.70231813599590898</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" si="0"/>
-        <v>1.4990264265559876</v>
+        <v>0.94064895984933283</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -1317,32 +1362,32 @@
         <v>14</v>
       </c>
       <c r="B7" s="1">
-        <v>3.3048065502832702</v>
+        <v>2.8749990107466701</v>
       </c>
       <c r="C7" s="1">
-        <v>4.0933693151443498</v>
+        <v>4.7536573162125304</v>
       </c>
       <c r="D7" s="1">
-        <v>2.2950636410748499</v>
+        <v>1.57348143837631</v>
       </c>
       <c r="E7" s="1">
-        <v>10.9828880902654</v>
+        <v>11.346815982202701</v>
       </c>
       <c r="F7" s="1">
-        <v>2.56454328278822</v>
+        <v>1.5721940815478801</v>
       </c>
       <c r="G7" s="1">
-        <v>0.23496532292740199</v>
+        <v>1.3893534983640199</v>
       </c>
       <c r="H7" s="1">
-        <v>2.44822301986716</v>
+        <v>1.1814547829516</v>
       </c>
       <c r="I7" s="1">
-        <v>5.4451340647112003</v>
+        <v>3.69774219221194</v>
       </c>
       <c r="J7" s="1">
         <f t="shared" si="0"/>
-        <v>3.7845933928034174</v>
+        <v>3.2249699893868629</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -1350,32 +1395,32 @@
         <v>15</v>
       </c>
       <c r="B8" s="1">
-        <v>4.6349382197203504</v>
+        <v>4.1995965657587604</v>
       </c>
       <c r="C8" s="1">
-        <v>2.6511528420049699</v>
+        <v>3.3022925347954701</v>
       </c>
       <c r="D8" s="1">
-        <v>6.8189009766675399</v>
+        <v>6.0654079427609497</v>
       </c>
       <c r="E8" s="1">
-        <v>6.6470057650862699</v>
+        <v>6.9967157127851598</v>
       </c>
       <c r="F8" s="1">
-        <v>3.9326082746410198</v>
+        <v>2.9270225478095102</v>
       </c>
       <c r="G8" s="1">
-        <v>-0.216224106576615</v>
+        <v>0.93296780086486697</v>
       </c>
       <c r="H8" s="1">
-        <v>2.2334035039870499</v>
+        <v>0.96929150191251201</v>
       </c>
       <c r="I8" s="1">
-        <v>6.4262192309448398</v>
+        <v>4.6625692327301298</v>
       </c>
       <c r="J8" s="1">
         <f t="shared" si="0"/>
-        <v>5.1328028173344258</v>
+        <v>4.5574665690113267</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -1383,32 +1428,32 @@
         <v>16</v>
       </c>
       <c r="B9" s="1">
-        <v>4.5831647119756997</v>
+        <v>4.1480384656482796</v>
       </c>
       <c r="C9" s="1">
-        <v>-1.85989685272748</v>
+        <v>-1.23737177780601</v>
       </c>
       <c r="D9" s="1">
-        <v>8.7683837076505906</v>
+        <v>8.0011391593201893</v>
       </c>
       <c r="E9" s="1">
-        <v>0.94171192444186502</v>
+        <v>1.2727134424356199</v>
       </c>
       <c r="F9" s="1">
-        <v>5.1530789841233799</v>
+        <v>4.1356847599795703</v>
       </c>
       <c r="G9" s="1">
-        <v>-0.54072572473584801</v>
+        <v>0.60472895558427797</v>
       </c>
       <c r="H9" s="1">
-        <v>1.67940748103986</v>
+        <v>0.42214561793855399</v>
       </c>
       <c r="I9" s="1">
-        <v>2.9759493434299298</v>
+        <v>1.26947574897105</v>
       </c>
       <c r="J9" s="1">
         <f t="shared" si="0"/>
-        <v>3.6169002275821849</v>
+        <v>3.0453203990333773</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -1416,32 +1461,32 @@
         <v>17</v>
       </c>
       <c r="B10" s="1">
-        <v>2.8797953751313199</v>
+        <v>2.4517561270573198</v>
       </c>
       <c r="C10" s="1">
-        <v>7.4885362484110707E-2</v>
+        <v>0.709683202614244</v>
       </c>
       <c r="D10" s="1">
-        <v>0.98979559876854495</v>
+        <v>0.27742066527298598</v>
       </c>
       <c r="E10" s="1">
-        <v>2.5115218413323399</v>
+        <v>2.8476709782394898</v>
       </c>
       <c r="F10" s="1">
-        <v>2.1891190813744399</v>
+        <v>1.2004022456132</v>
       </c>
       <c r="G10" s="1">
-        <v>0.232176141771684</v>
+        <v>1.3865321947075899</v>
       </c>
       <c r="H10" s="1">
-        <v>2.1814155026630302</v>
+        <v>0.91794633017437099</v>
       </c>
       <c r="I10" s="1">
-        <v>3.1881275467426802</v>
+        <v>1.47813782542524</v>
       </c>
       <c r="J10" s="1">
         <f t="shared" si="0"/>
-        <v>1.783150970781664</v>
+        <v>1.2292494550924475</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -1449,32 +1494,32 @@
         <v>18</v>
       </c>
       <c r="B11" s="1">
-        <v>0.83758252603728001</v>
+        <v>0.41804006053506898</v>
       </c>
       <c r="C11" s="1">
-        <v>-0.43102299463670501</v>
+        <v>0.200565753309702</v>
       </c>
       <c r="D11" s="1">
-        <v>1.6923353126162399</v>
+        <v>0.97500471326392102</v>
       </c>
       <c r="E11" s="1">
-        <v>0.29831342732257299</v>
+        <v>0.62720515467417304</v>
       </c>
       <c r="F11" s="1">
-        <v>1.2933779843834701</v>
+        <v>0.31332776901234299</v>
       </c>
       <c r="G11" s="1">
-        <v>-0.83735731708849204</v>
+        <v>0.30468111021483901</v>
       </c>
       <c r="H11" s="1">
-        <v>1.6884567477947801</v>
+        <v>0.431082990866969</v>
       </c>
       <c r="I11" s="1">
-        <v>1.9589406470711901</v>
+        <v>0.26932048777592998</v>
       </c>
       <c r="J11" s="1">
         <f t="shared" si="0"/>
-        <v>1.0144588727720012</v>
+        <v>0.46573275372115552</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -1482,32 +1527,32 @@
         <v>19</v>
       </c>
       <c r="B12" s="1">
-        <v>1.23297734201126</v>
+        <v>0.811789806171336</v>
       </c>
       <c r="C12" s="1">
-        <v>-4.3725256877766502E-2</v>
+        <v>0.59032020902066396</v>
       </c>
       <c r="D12" s="1">
-        <v>2.4400496131432901</v>
+        <v>1.71744468956886</v>
       </c>
       <c r="E12" s="1">
-        <v>1.13146932872268</v>
+        <v>1.4630930868951499</v>
       </c>
       <c r="F12" s="1">
-        <v>1.42832227435681</v>
+        <v>0.44696642397692599</v>
       </c>
       <c r="G12" s="1">
-        <v>-0.47229597174578802</v>
+        <v>0.67394680180553002</v>
       </c>
       <c r="H12" s="1">
-        <v>1.8084689562409699</v>
+        <v>0.54961125308919601</v>
       </c>
       <c r="I12" s="1">
-        <v>2.4399581719400301</v>
+        <v>0.74236679499740099</v>
       </c>
       <c r="J12" s="1">
         <f t="shared" si="0"/>
-        <v>1.5173149675542035</v>
+        <v>0.96548037493956529</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -1515,32 +1560,32 @@
         <v>20</v>
       </c>
       <c r="B13" s="1">
-        <v>-0.43745860351915999</v>
+        <v>-0.85169616299615303</v>
       </c>
       <c r="C13" s="1">
-        <v>-2.8533060056582999</v>
+        <v>-2.2370823517413401</v>
       </c>
       <c r="D13" s="1">
-        <v>-0.38698740878478499</v>
+        <v>-1.08965061152944</v>
       </c>
       <c r="E13" s="1">
-        <v>-1.6013490301336699</v>
+        <v>-1.2786865527631399</v>
       </c>
       <c r="F13" s="1">
-        <v>0.49039202364930801</v>
+        <v>-0.481889010957814</v>
       </c>
       <c r="G13" s="1">
-        <v>-1.779826214609</v>
+        <v>-0.64864203310212898</v>
       </c>
       <c r="H13" s="1">
-        <v>0.60934845842580898</v>
+        <v>-0.63468216706574898</v>
       </c>
       <c r="I13" s="1">
-        <v>1.64860978729203</v>
+        <v>-3.58677011064336E-2</v>
       </c>
       <c r="J13" s="1">
         <f t="shared" si="0"/>
-        <v>-0.50728555766755368</v>
+        <v>-1.0535742068433418</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -1548,32 +1593,32 @@
         <v>21</v>
       </c>
       <c r="B14" s="1">
-        <v>4.8631516821956398</v>
+        <v>4.4268605286892502</v>
       </c>
       <c r="C14" s="1">
-        <v>-0.74507668597900401</v>
+        <v>-0.115480052280111</v>
       </c>
       <c r="D14" s="1">
-        <v>1.04198614426647</v>
+        <v>0.32924306232425199</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.20811914875359</v>
+        <v>0.11911191772504701</v>
       </c>
       <c r="F14" s="1">
-        <v>2.8492809502086001</v>
+        <v>1.8541768086371999</v>
       </c>
       <c r="G14" s="1">
-        <v>-1.2954995613901099</v>
+        <v>-0.15873747640690899</v>
       </c>
       <c r="H14" s="1">
-        <v>1.44855231866783</v>
+        <v>0.19414497054395199</v>
       </c>
       <c r="I14" s="1">
-        <v>2.9984317223205799</v>
+        <v>1.2915855594497401</v>
       </c>
       <c r="J14" s="1">
         <f t="shared" si="0"/>
-        <v>2.0396232157009213</v>
+        <v>1.483052274545783</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -1581,32 +1626,32 @@
         <v>22</v>
       </c>
       <c r="B15" s="1">
-        <v>-2.63038954001323E-2</v>
+        <v>-0.44225209545007299</v>
       </c>
       <c r="C15" s="1">
-        <v>-0.693099936690448</v>
+        <v>-6.3173602607029603E-2</v>
       </c>
       <c r="D15" s="1">
-        <v>-0.39668424918629103</v>
+        <v>-1.09927905109901</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.55761032366055996</v>
+        <v>-0.231525285986211</v>
       </c>
       <c r="F15" s="1">
-        <v>0.17092830323123301</v>
+        <v>-0.79826180387175105</v>
       </c>
       <c r="G15" s="1">
-        <v>-1.37277465775134</v>
+        <v>-0.23690253623754401</v>
       </c>
       <c r="H15" s="1">
-        <v>0.54866256647002798</v>
+        <v>-0.69461768036104798</v>
       </c>
       <c r="I15" s="1">
-        <v>1.29094129086244</v>
+        <v>-0.38760906747683199</v>
       </c>
       <c r="J15" s="1">
         <f t="shared" si="0"/>
-        <v>4.3713302396392151E-2</v>
+        <v>-0.49807845415823615</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -1614,32 +1659,32 @@
         <v>23</v>
       </c>
       <c r="B16" s="1">
-        <v>0.19876636417825699</v>
+        <v>-0.21811825788071401</v>
       </c>
       <c r="C16" s="1">
-        <v>-0.78031475717286303</v>
+        <v>-0.15094164660270701</v>
       </c>
       <c r="D16" s="1">
-        <v>1.0158656845962399</v>
+        <v>0.30330685454412498</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.51943476458956295</v>
+        <v>-0.19322454409671599</v>
       </c>
       <c r="F16" s="1">
-        <v>0.90591290000432301</v>
+        <v>-7.0388449972534198E-2</v>
       </c>
       <c r="G16" s="1">
-        <v>-1.1645161384348099</v>
+        <v>-2.6245540786880801E-2</v>
       </c>
       <c r="H16" s="1">
-        <v>1.42824934790925</v>
+        <v>0.174093045218012</v>
       </c>
       <c r="I16" s="1">
-        <v>1.5978849897201799</v>
+        <v>-8.5751908927053005E-2</v>
       </c>
       <c r="J16" s="1">
         <f t="shared" si="0"/>
-        <v>0.50805057033045342</v>
+        <v>-3.7876239716587261E-2</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -1647,32 +1692,32 @@
         <v>24</v>
       </c>
       <c r="B17" s="1">
-        <v>-0.46334281394597499</v>
+        <v>-0.877472680188084</v>
       </c>
       <c r="C17" s="1">
-        <v>-0.652821704812104</v>
+        <v>-2.26398767103013E-2</v>
       </c>
       <c r="D17" s="1">
-        <v>0.23290440147673999</v>
+        <v>-0.47413147461071897</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.93175208506854001</v>
+        <v>-0.60689390880370997</v>
       </c>
       <c r="F17" s="1">
-        <v>0.59336590656754995</v>
+        <v>-0.37991143775043201</v>
       </c>
       <c r="G17" s="1">
-        <v>-1.1404432927602199</v>
+        <v>-1.89545245244365E-3</v>
       </c>
       <c r="H17" s="1">
-        <v>1.16578029722411</v>
+        <v>-8.5130586007604897E-2</v>
       </c>
       <c r="I17" s="1">
-        <v>1.6592911406494499</v>
+        <v>-2.5363354589673301E-2</v>
       </c>
       <c r="J17" s="1">
         <f t="shared" si="0"/>
-        <v>0.1940077558420277</v>
+        <v>-0.34990184652469436</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -1681,27 +1726,27 @@
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1">
-        <v>-7.6173970297840796</v>
+        <v>-7.0313930926456498</v>
       </c>
       <c r="D18" s="1">
-        <v>-1.51025349871368</v>
+        <v>-2.2049932612595899</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.95643220239329296</v>
+        <v>-0.63165495556925599</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1">
-        <v>-6.19488508838473</v>
+        <v>-5.1145483505949603</v>
       </c>
       <c r="H18" s="1">
-        <v>-1.8973033092007101</v>
+        <v>-3.1103392844519999</v>
       </c>
       <c r="I18" s="1">
-        <v>0.55096115514083899</v>
+        <v>-1.11532656740741</v>
       </c>
       <c r="J18" s="1">
         <f>AVERAGE(C18:D18,I18)</f>
-        <v>-2.8588964577856402</v>
+        <v>-3.450570973770883</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -1710,27 +1755,27 @@
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1">
-        <v>-1.24291880677546</v>
+        <v>-0.61648009928215397</v>
       </c>
       <c r="D19" s="1">
-        <v>-2.5409638104075299E-2</v>
+        <v>-0.73062338507763402</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.47910215264536399</v>
+        <v>-0.15275967606607099</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1">
-        <v>-1.6452451707868201</v>
+        <v>-0.51251104345888698</v>
       </c>
       <c r="H19" s="1">
-        <v>1.0838691140819201</v>
+        <v>-0.16602894060095899</v>
       </c>
       <c r="I19" s="1">
-        <v>1.68154414508571</v>
+        <v>-3.4791174695635099E-3</v>
       </c>
       <c r="J19" s="1">
         <f>AVERAGE(C19:D19,I19)</f>
-        <v>0.13773856673539156</v>
+        <v>-0.45019420060978382</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -1740,18 +1785,18 @@
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1">
-        <v>-2.6634604371572701</v>
+        <v>-3.3500655588594199</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1">
-        <v>-0.87586332983275295</v>
+        <v>-2.10152937014167</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1">
         <f t="shared" ref="J20" si="1">AVERAGE(B20:D20,I20)</f>
-        <v>-2.6634604371572701</v>
+        <v>-3.3500655588594199</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -1761,18 +1806,18 @@
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1">
-        <v>-0.68244234513778101</v>
+        <v>-1.3830214294882299</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1">
-        <v>1.0548197695347501</v>
+        <v>-0.19471909114855601</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1">
         <f>AVERAGE(C21:D21,I21)</f>
-        <v>-0.68244234513778101</v>
+        <v>-1.3830214294882299</v>
       </c>
     </row>
   </sheetData>
@@ -1785,9 +1830,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J21"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -1828,32 +1871,32 @@
         <v>9</v>
       </c>
       <c r="B2" s="1">
-        <v>-0.32084867296619901</v>
+        <v>-0.73557139696757501</v>
       </c>
       <c r="C2" s="1">
-        <v>-1.4172544148769799</v>
+        <v>-0.79192155793828101</v>
       </c>
       <c r="D2" s="1">
-        <v>7.8669516119552696E-2</v>
+        <v>-0.62727839790651596</v>
       </c>
       <c r="E2" s="1">
-        <v>-1.11547334484139</v>
+        <v>-0.79121761542150404</v>
       </c>
       <c r="F2" s="1">
-        <v>0.72569555544469599</v>
+        <v>-0.24886212627996299</v>
       </c>
       <c r="G2" s="1">
-        <v>-1.4141366276873799</v>
+        <v>-0.27874086458657699</v>
       </c>
       <c r="H2" s="1">
-        <v>0.96675665543040501</v>
+        <v>-0.281693308320353</v>
       </c>
       <c r="I2" s="1">
-        <v>1.2642643216173599</v>
+        <v>-0.41384395734427998</v>
       </c>
       <c r="J2" s="1">
         <f>AVERAGE(B2:D2,I2)</f>
-        <v>-9.8792312526566561E-2</v>
+        <v>-0.64215382753916295</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -1861,32 +1904,32 @@
         <v>10</v>
       </c>
       <c r="B3" s="1">
-        <v>0.29561601688762101</v>
+        <v>-0.121671555550195</v>
       </c>
       <c r="C3" s="1">
-        <v>-0.51924605904943399</v>
+        <v>0.111783069862327</v>
       </c>
       <c r="D3" s="1">
-        <v>0.89610983119459198</v>
+        <v>0.184395750531236</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.36243105322958802</v>
+        <v>-3.5705996344528798E-2</v>
       </c>
       <c r="F3" s="1">
-        <v>0.94398747215714796</v>
+        <v>-3.2682263131573498E-2</v>
       </c>
       <c r="G3" s="1">
-        <v>-1.1106856102473699</v>
+        <v>2.82049439697757E-2</v>
       </c>
       <c r="H3" s="1">
-        <v>1.28081056712263</v>
+        <v>2.8477339140595699E-2</v>
       </c>
       <c r="I3" s="1">
-        <v>1.63089375910825</v>
+        <v>-5.3290146813068998E-2</v>
       </c>
       <c r="J3" s="1">
         <f t="shared" ref="J3:J17" si="0">AVERAGE(B3:D3,I3)</f>
-        <v>0.57584338703525728</v>
+        <v>3.0304279507574746E-2</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -1894,32 +1937,32 @@
         <v>11</v>
       </c>
       <c r="B4" s="1">
-        <v>0.58305953047445203</v>
+        <v>0.164576027339352</v>
       </c>
       <c r="C4" s="1">
-        <v>-0.51357888822206199</v>
+        <v>0.117486188847799</v>
       </c>
       <c r="D4" s="1">
-        <v>0.71138509523659899</v>
+        <v>9.7404990184046705E-4</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.27425467901699502</v>
+        <v>5.2759520118171303E-2</v>
       </c>
       <c r="F4" s="1">
-        <v>1.1846139932084501</v>
+        <v>0.20561610894816801</v>
       </c>
       <c r="G4" s="1">
-        <v>-0.998139607801527</v>
+        <v>0.142047118604609</v>
       </c>
       <c r="H4" s="1">
-        <v>1.4621304084244899</v>
+        <v>0.207555167756308</v>
       </c>
       <c r="I4" s="1">
-        <v>1.8773321668712399</v>
+        <v>0.18906438856816901</v>
       </c>
       <c r="J4" s="1">
         <f t="shared" si="0"/>
-        <v>0.66454947609005721</v>
+        <v>0.11802516366429011</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -1927,32 +1970,32 @@
         <v>12</v>
       </c>
       <c r="B5" s="1">
-        <v>-0.42117996464923702</v>
+        <v>-0.83548525264684104</v>
       </c>
       <c r="C5" s="1">
-        <v>-1.1379559980984</v>
+        <v>-0.51085148755170695</v>
       </c>
       <c r="D5" s="1">
-        <v>0.276947163950922</v>
+        <v>-0.430399386693332</v>
       </c>
       <c r="E5" s="1">
-        <v>-1.12552134304352</v>
+        <v>-0.80129856236795904</v>
       </c>
       <c r="F5" s="1">
-        <v>0.69756438295648404</v>
+        <v>-0.276721119458883</v>
       </c>
       <c r="G5" s="1">
-        <v>-1.2769448372388601</v>
+        <v>-0.13996906081485599</v>
       </c>
       <c r="H5" s="1">
-        <v>1.15265563318386</v>
+        <v>-9.80929640946578E-2</v>
       </c>
       <c r="I5" s="1">
-        <v>1.52048850123829</v>
+        <v>-0.16186581575040701</v>
       </c>
       <c r="J5" s="1">
         <f t="shared" si="0"/>
-        <v>5.9574925610393736E-2</v>
+        <v>-0.48465048566057173</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -1960,32 +2003,32 @@
         <v>13</v>
       </c>
       <c r="B6" s="1">
-        <v>1.1834805667860899</v>
+        <v>0.76249896606075196</v>
       </c>
       <c r="C6" s="1">
-        <v>-2.0539949534726398</v>
+        <v>-1.4327010871074599</v>
       </c>
       <c r="D6" s="1">
-        <v>4.4673854326714002</v>
+        <v>3.7304798244481301</v>
       </c>
       <c r="E6" s="1">
-        <v>1.9456911700653601</v>
+        <v>2.2799848717164002</v>
       </c>
       <c r="F6" s="1">
-        <v>1.5153683751471101</v>
+        <v>0.53317032213242199</v>
       </c>
       <c r="G6" s="1">
-        <v>-0.34770361305568398</v>
+        <v>0.79997406841582197</v>
       </c>
       <c r="H6" s="1">
-        <v>1.08481630728286</v>
+        <v>-0.16509345940658701</v>
       </c>
       <c r="I6" s="1">
-        <v>2.3992346602391001</v>
+        <v>0.70231813599590898</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" si="0"/>
-        <v>1.4990264265559876</v>
+        <v>0.94064895984933283</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -1993,32 +2036,32 @@
         <v>14</v>
       </c>
       <c r="B7" s="1">
-        <v>3.3048065502832702</v>
+        <v>2.8749990107466701</v>
       </c>
       <c r="C7" s="1">
-        <v>4.0933693151443498</v>
+        <v>4.7536573162125304</v>
       </c>
       <c r="D7" s="1">
-        <v>2.2950636410748499</v>
+        <v>1.57348143837631</v>
       </c>
       <c r="E7" s="1">
-        <v>10.9828880902654</v>
+        <v>11.346815982202701</v>
       </c>
       <c r="F7" s="1">
-        <v>2.56454328278822</v>
+        <v>1.5721940815478801</v>
       </c>
       <c r="G7" s="1">
-        <v>0.23496532292740199</v>
+        <v>1.3893534983640199</v>
       </c>
       <c r="H7" s="1">
-        <v>2.44822301986716</v>
+        <v>1.1814547829516</v>
       </c>
       <c r="I7" s="1">
-        <v>5.4451340647112003</v>
+        <v>3.69774219221194</v>
       </c>
       <c r="J7" s="1">
         <f t="shared" si="0"/>
-        <v>3.7845933928034174</v>
+        <v>3.2249699893868629</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -2026,32 +2069,32 @@
         <v>15</v>
       </c>
       <c r="B8" s="1">
-        <v>4.6349382197203504</v>
+        <v>4.1995965657587604</v>
       </c>
       <c r="C8" s="1">
-        <v>2.6511528420049699</v>
+        <v>3.3022925347954701</v>
       </c>
       <c r="D8" s="1">
-        <v>6.8189009766675399</v>
+        <v>6.0654079427609497</v>
       </c>
       <c r="E8" s="1">
-        <v>6.6470057650862699</v>
+        <v>6.9967157127851598</v>
       </c>
       <c r="F8" s="1">
-        <v>3.9326082746410198</v>
+        <v>2.9270225478095102</v>
       </c>
       <c r="G8" s="1">
-        <v>-0.216224106576615</v>
+        <v>0.93296780086486697</v>
       </c>
       <c r="H8" s="1">
-        <v>2.2334035039870499</v>
+        <v>0.96929150191251201</v>
       </c>
       <c r="I8" s="1">
-        <v>6.4262192309448398</v>
+        <v>4.6625692327301298</v>
       </c>
       <c r="J8" s="1">
         <f t="shared" si="0"/>
-        <v>5.1328028173344258</v>
+        <v>4.5574665690113267</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -2059,32 +2102,32 @@
         <v>16</v>
       </c>
       <c r="B9" s="1">
-        <v>4.5831647119756997</v>
+        <v>4.1480384656482796</v>
       </c>
       <c r="C9" s="1">
-        <v>-1.85989685272748</v>
+        <v>-1.23737177780601</v>
       </c>
       <c r="D9" s="1">
-        <v>8.7683837076505906</v>
+        <v>8.0011391593201893</v>
       </c>
       <c r="E9" s="1">
-        <v>0.94171192444186502</v>
+        <v>1.2727134424356199</v>
       </c>
       <c r="F9" s="1">
-        <v>5.1530789841233799</v>
+        <v>4.1356847599795703</v>
       </c>
       <c r="G9" s="1">
-        <v>-0.54072572473584801</v>
+        <v>0.60472895558427797</v>
       </c>
       <c r="H9" s="1">
-        <v>1.67940748103986</v>
+        <v>0.42214561793855399</v>
       </c>
       <c r="I9" s="1">
-        <v>2.9759493434299298</v>
+        <v>1.26947574897105</v>
       </c>
       <c r="J9" s="1">
         <f t="shared" si="0"/>
-        <v>3.6169002275821849</v>
+        <v>3.0453203990333773</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -2092,32 +2135,32 @@
         <v>17</v>
       </c>
       <c r="B10" s="1">
-        <v>1.1110915083936801</v>
+        <v>0.69041108787588801</v>
       </c>
       <c r="C10" s="1">
-        <v>-0.36901633769303599</v>
+        <v>0.26296573263149797</v>
       </c>
       <c r="D10" s="1">
-        <v>0.83385571134712</v>
+        <v>0.12258076687790299</v>
       </c>
       <c r="E10" s="1">
-        <v>0.45514470849913402</v>
+        <v>0.78455070682106498</v>
       </c>
       <c r="F10" s="1">
-        <v>1.34498904425453</v>
+        <v>0.36443947313726199</v>
       </c>
       <c r="G10" s="1">
-        <v>-0.77249521131579202</v>
+        <v>0.37029022126355798</v>
       </c>
       <c r="H10" s="1">
-        <v>1.58286311081911</v>
+        <v>0.32679501504771102</v>
       </c>
       <c r="I10" s="1">
-        <v>2.1290201405004798</v>
+        <v>0.43658149624492798</v>
       </c>
       <c r="J10" s="1">
         <f t="shared" si="0"/>
-        <v>0.92623775563706101</v>
+        <v>0.37813477090755426</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -2125,32 +2168,32 @@
         <v>18</v>
       </c>
       <c r="B11" s="1">
-        <v>0.53344989647046404</v>
+        <v>0.115172798007524</v>
       </c>
       <c r="C11" s="1">
-        <v>-0.56469029167709395</v>
+        <v>6.6050574094380393E-2</v>
       </c>
       <c r="D11" s="1">
-        <v>0.99977662553670998</v>
+        <v>0.28733128657851997</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.15627351942619599</v>
+        <v>0.171127555879136</v>
       </c>
       <c r="F11" s="1">
-        <v>1.0770273963513799</v>
+        <v>9.9070451484361E-2</v>
       </c>
       <c r="G11" s="1">
-        <v>-1.05487442566999</v>
+        <v>8.4658895981906998E-2</v>
       </c>
       <c r="H11" s="1">
-        <v>1.4295668621878499</v>
+        <v>0.175394268484521</v>
       </c>
       <c r="I11" s="1">
-        <v>1.7609416378873199</v>
+        <v>7.4602633881771394E-2</v>
       </c>
       <c r="J11" s="1">
         <f t="shared" si="0"/>
-        <v>0.68236946705434998</v>
+        <v>0.13578932314054892</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -2158,32 +2201,32 @@
         <v>19</v>
       </c>
       <c r="B12" s="1">
-        <v>0.66897388426256499</v>
+        <v>0.250132927895174</v>
       </c>
       <c r="C12" s="1">
-        <v>-0.51564515213973405</v>
+        <v>0.115406818146469</v>
       </c>
       <c r="D12" s="1">
-        <v>1.2354031596564601</v>
+        <v>0.52129572765631105</v>
       </c>
       <c r="E12" s="1">
-        <v>4.7363614646453202E-2</v>
+        <v>0.37543244364064998</v>
       </c>
       <c r="F12" s="1">
-        <v>1.12215083373158</v>
+        <v>0.14375730322192401</v>
       </c>
       <c r="G12" s="1">
-        <v>-0.91821396224159701</v>
+        <v>0.22289325353520201</v>
       </c>
       <c r="H12" s="1">
-        <v>1.40091732195718</v>
+        <v>0.14709897868882901</v>
       </c>
       <c r="I12" s="1">
-        <v>1.94183545927447</v>
+        <v>0.25249875986949799</v>
       </c>
       <c r="J12" s="1">
         <f t="shared" si="0"/>
-        <v>0.83264183776344025</v>
+        <v>0.28483355839186297</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -2191,32 +2234,32 @@
         <v>20</v>
       </c>
       <c r="B13" s="1">
-        <v>1.8160379042045E-2</v>
+        <v>-0.39797281801852402</v>
       </c>
       <c r="C13" s="1">
-        <v>-1.8440759336978101</v>
+        <v>-1.2214505030757801</v>
       </c>
       <c r="D13" s="1">
-        <v>0.58294183439977698</v>
+        <v>-0.12656318118361801</v>
       </c>
       <c r="E13" s="1">
-        <v>-1.0812665559043899</v>
+        <v>-0.75689865779974996</v>
       </c>
       <c r="F13" s="1">
-        <v>0.73420718297619703</v>
+        <v>-0.240432851835716</v>
       </c>
       <c r="G13" s="1">
-        <v>-1.54910593060047</v>
+        <v>-0.41526458483126</v>
       </c>
       <c r="H13" s="1">
-        <v>1.23332535881828</v>
+        <v>-1.84207164359626E-2</v>
       </c>
       <c r="I13" s="1">
-        <v>1.63886928623869</v>
+        <v>-4.5446786722954602E-2</v>
       </c>
       <c r="J13" s="1">
         <f t="shared" si="0"/>
-        <v>9.8973891495675481E-2</v>
+        <v>-0.44785832225021921</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -2224,32 +2267,32 @@
         <v>21</v>
       </c>
       <c r="B14" s="1">
-        <v>1.0311327115377</v>
+        <v>0.61078496570261398</v>
       </c>
       <c r="C14" s="1">
-        <v>-0.70786517462399101</v>
+        <v>-7.8032499814978395E-2</v>
       </c>
       <c r="D14" s="1">
-        <v>0.91114504470315405</v>
+        <v>0.19932490669846201</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.58936807844409</v>
+        <v>-0.26338717874046702</v>
       </c>
       <c r="F14" s="1">
-        <v>1.34069995849931</v>
+        <v>0.360191885844247</v>
       </c>
       <c r="G14" s="1">
-        <v>-1.21461755298449</v>
+        <v>-7.6923964370707004E-2</v>
       </c>
       <c r="H14" s="1">
-        <v>1.5143197965567501</v>
+        <v>0.25909923616275299</v>
       </c>
       <c r="I14" s="1">
-        <v>2.2732396123078198</v>
+        <v>0.57841102436139102</v>
       </c>
       <c r="J14" s="1">
         <f t="shared" si="0"/>
-        <v>0.87691304848117069</v>
+        <v>0.32762209923687213</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -2257,32 +2300,32 @@
         <v>22</v>
       </c>
       <c r="B15" s="1">
-        <v>0.24427101484529901</v>
+        <v>-0.172802932789062</v>
       </c>
       <c r="C15" s="1">
-        <v>-0.58446105632549505</v>
+        <v>4.61543989731018E-2</v>
       </c>
       <c r="D15" s="1">
-        <v>0.36906741263462001</v>
+        <v>-0.33892894778140997</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.39926609252685102</v>
+        <v>-7.2661822714750898E-2</v>
       </c>
       <c r="F15" s="1">
-        <v>0.66236894196176799</v>
+        <v>-0.31157603178120702</v>
       </c>
       <c r="G15" s="1">
-        <v>-1.2222689183513</v>
+        <v>-8.4663449144522201E-2</v>
       </c>
       <c r="H15" s="1">
-        <v>1.1578221816115699</v>
+        <v>-9.2990299834481899E-2</v>
       </c>
       <c r="I15" s="1">
-        <v>1.5196793318806101</v>
+        <v>-0.16266157589797101</v>
       </c>
       <c r="J15" s="1">
         <f t="shared" si="0"/>
-        <v>0.3871391757587585</v>
+        <v>-0.15705976437383529</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -2290,32 +2333,32 @@
         <v>23</v>
       </c>
       <c r="B16" s="1">
-        <v>0.37584271004757902</v>
+        <v>-4.1778651675980202E-2</v>
       </c>
       <c r="C16" s="1">
-        <v>-0.67832118411344799</v>
+        <v>-4.8301105029157E-2</v>
       </c>
       <c r="D16" s="1">
-        <v>0.795265935059975</v>
+        <v>8.4263200165529101E-2</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.36780120122486198</v>
+        <v>-4.1093753780978598E-2</v>
       </c>
       <c r="F16" s="1">
-        <v>0.96850050969336499</v>
+        <v>-8.4063981351093497E-3</v>
       </c>
       <c r="G16" s="1">
-        <v>-1.1523612953932301</v>
+        <v>-1.3950712591056199E-2</v>
       </c>
       <c r="H16" s="1">
-        <v>1.3128426893790499</v>
+        <v>6.0113385468711401E-2</v>
       </c>
       <c r="I16" s="1">
-        <v>1.6729670498999401</v>
+        <v>-1.19140766852859E-2</v>
       </c>
       <c r="J16" s="1">
         <f t="shared" si="0"/>
-        <v>0.54143862772351148</v>
+        <v>-4.4326583062235022E-3</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -2323,32 +2366,32 @@
         <v>24</v>
       </c>
       <c r="B17" s="1">
-        <v>0.424539910333253</v>
+        <v>6.7159401877234697E-3</v>
       </c>
       <c r="C17" s="1">
-        <v>-0.63032453279890299</v>
+        <v>0</v>
       </c>
       <c r="D17" s="1">
-        <v>0.71524994068285597</v>
+        <v>4.8116329994463804E-3</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.33873889687933001</v>
+        <v>-1.19361502110594E-2</v>
       </c>
       <c r="F17" s="1">
-        <v>0.96987965188712899</v>
+        <v>-7.0405996428880803E-3</v>
       </c>
       <c r="G17" s="1">
-        <v>-1.1385694213498001</v>
+        <v>0</v>
       </c>
       <c r="H17" s="1">
-        <v>1.2513978798987999</v>
+        <v>-5.7166136579115995E-4</v>
       </c>
       <c r="I17" s="1">
-        <v>1.68508188853364</v>
+        <v>0</v>
       </c>
       <c r="J17" s="1">
         <f t="shared" si="0"/>
-        <v>0.54863680168771145</v>
+        <v>2.8818932967924625E-3</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -2357,27 +2400,27 @@
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1">
-        <v>-2.2719536641589002</v>
+        <v>-1.65204235964507</v>
       </c>
       <c r="D18" s="1">
-        <v>-0.30718638681499699</v>
+        <v>-1.0104125003704101</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.61074897956422303</v>
+        <v>-0.28483819072549399</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1">
-        <v>-2.23104118348181</v>
+        <v>-1.1050535641024199</v>
       </c>
       <c r="H18" s="1">
-        <v>0.59464066505568702</v>
+        <v>-0.64920809915094901</v>
       </c>
       <c r="I18" s="1">
-        <v>1.6619744685582101</v>
+        <v>-2.2724493648696099E-2</v>
       </c>
       <c r="J18" s="1">
         <f>AVERAGE(C18:D18,I18)</f>
-        <v>-0.30572186080522906</v>
+        <v>-0.89505978455472535</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -2386,27 +2429,27 @@
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1">
-        <v>-0.80464948110422596</v>
+        <v>-0.17543073124241201</v>
       </c>
       <c r="D19" s="1">
-        <v>0.53292434416415901</v>
+        <v>-0.176227851551952</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.35590271913608801</v>
+        <v>-2.91562549610823E-2</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1">
-        <v>-1.2520205117408101</v>
+        <v>-0.114757686316059</v>
       </c>
       <c r="H19" s="1">
-        <v>1.1740812936789</v>
+        <v>-7.6932231046577496E-2</v>
       </c>
       <c r="I19" s="1">
-        <v>1.6654417439859699</v>
+        <v>-1.9314676433256999E-2</v>
       </c>
       <c r="J19" s="1">
         <f>AVERAGE(C19:D19,I19)</f>
-        <v>0.46457220234863428</v>
+        <v>-0.12365775307587368</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -2416,18 +2459,18 @@
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1">
-        <v>-0.21063443355401801</v>
+        <v>-0.91454161781440302</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1">
-        <v>0.66818684400847606</v>
+        <v>-0.57657131580013099</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1">
         <f t="shared" ref="J20" si="1">AVERAGE(B20:D20,I20)</f>
-        <v>-0.21063443355401801</v>
+        <v>-0.91454161781440302</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -2437,18 +2480,18 @@
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1">
-        <v>0.36744936756056401</v>
+        <v>-0.340535579279022</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1">
-        <v>1.2942451231243901</v>
+        <v>4.1745777387278901E-2</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1">
         <f>AVERAGE(C21:D21,I21)</f>
-        <v>0.36744936756056401</v>
+        <v>-0.340535579279022</v>
       </c>
     </row>
   </sheetData>
@@ -2462,7 +2505,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J21"/>
+      <selection activeCell="B2" sqref="B2:I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2507,32 +2550,32 @@
         <v>9</v>
       </c>
       <c r="B2" s="1">
-        <v>1.0985012101231799</v>
+        <v>0.67787317250316304</v>
       </c>
       <c r="C2" s="1">
-        <v>9.9681310638858794E-2</v>
+        <v>0.73463643712785898</v>
       </c>
       <c r="D2" s="1">
-        <v>1.41047740901341</v>
+        <v>0.69513501554014401</v>
       </c>
       <c r="E2" s="1">
-        <v>0.43354979375657599</v>
+        <v>0.76288497943401701</v>
       </c>
       <c r="F2" s="1">
-        <v>1.20648625695628</v>
+        <v>0.22727675060161201</v>
       </c>
       <c r="G2" s="1">
-        <v>-0.87523584343953098</v>
+        <v>0.26636634364780498</v>
       </c>
       <c r="H2" s="1">
-        <v>1.51015036481126</v>
+        <v>0.25498135927634102</v>
       </c>
       <c r="I2" s="1">
-        <v>2.1050866457603501</v>
+        <v>0.413044617190862</v>
       </c>
       <c r="J2" s="1">
         <f>AVERAGE(B2:D2,I2)</f>
-        <v>1.1784366438839498</v>
+        <v>0.63017231059050705</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -2540,32 +2583,32 @@
         <v>10</v>
       </c>
       <c r="B3" s="1">
-        <v>0.47386432950379698</v>
+        <v>5.5835141344210401E-2</v>
       </c>
       <c r="C3" s="1">
-        <v>-0.71048415059402004</v>
+        <v>-8.06680885473713E-2</v>
       </c>
       <c r="D3" s="1">
-        <v>0.65967182803967495</v>
+        <v>-5.0374435536076803E-2</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.27674349209242899</v>
+        <v>5.0262545888242499E-2</v>
       </c>
       <c r="F3" s="1">
-        <v>1.00917760380919</v>
+        <v>3.1877130323782997E-2</v>
       </c>
       <c r="G3" s="1">
-        <v>-1.14868058842165</v>
+        <v>-1.0227615575328201E-2</v>
       </c>
       <c r="H3" s="1">
-        <v>1.25876325550102</v>
+        <v>6.7026416576039596E-3</v>
       </c>
       <c r="I3" s="1">
-        <v>1.75058363051893</v>
+        <v>6.4416275001970696E-2</v>
       </c>
       <c r="J3" s="1">
-        <f t="shared" ref="J3:J19" si="0">AVERAGE(B3:D3,I3)</f>
-        <v>0.54340890936709552</v>
+        <f t="shared" ref="J3:J17" si="0">AVERAGE(B3:D3,I3)</f>
+        <v>-2.6977769343167514E-3</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -2573,32 +2616,32 @@
         <v>11</v>
       </c>
       <c r="B4" s="1">
-        <v>0.328956215182302</v>
+        <v>-8.8470071697515806E-2</v>
       </c>
       <c r="C4" s="1">
-        <v>-0.66034936442637204</v>
+        <v>-3.0215285987704801E-2</v>
       </c>
       <c r="D4" s="1">
-        <v>0.80060677747937603</v>
+        <v>8.9566368657175405E-2</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.27208740773900802</v>
+        <v>5.4933898171635902E-2</v>
       </c>
       <c r="F4" s="1">
-        <v>0.81605051402116502</v>
+        <v>-0.159381384738949</v>
       </c>
       <c r="G4" s="1">
-        <v>-1.25460546787252</v>
+        <v>-0.11737241292539199</v>
       </c>
       <c r="H4" s="1">
-        <v>1.1784882035737001</v>
+        <v>-7.2579812418814393E-2</v>
       </c>
       <c r="I4" s="1">
-        <v>1.5391098192752199</v>
+        <v>-0.14355308226867899</v>
       </c>
       <c r="J4" s="1">
         <f t="shared" si="0"/>
-        <v>0.50208086187763146</v>
+        <v>-4.3168017824181046E-2</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -2606,32 +2649,32 @@
         <v>12</v>
       </c>
       <c r="B5" s="1">
-        <v>1.18461445189016</v>
+        <v>0.76362813354922898</v>
       </c>
       <c r="C5" s="1">
-        <v>-0.181724081974105</v>
+        <v>0.451446025878255</v>
       </c>
       <c r="D5" s="1">
-        <v>1.0479326694236299</v>
+        <v>0.33514764111011502</v>
       </c>
       <c r="E5" s="1">
-        <v>0.44444365370084998</v>
+        <v>0.773814561817605</v>
       </c>
       <c r="F5" s="1">
-        <v>1.20811296988183</v>
+        <v>0.228887724488887</v>
       </c>
       <c r="G5" s="1">
-        <v>-1.0023945358412001</v>
+        <v>0.13774318731940399</v>
       </c>
       <c r="H5" s="1">
-        <v>1.42377004814491</v>
+        <v>0.16966913181859</v>
       </c>
       <c r="I5" s="1">
-        <v>1.8633354597318399</v>
+        <v>0.17529962890092801</v>
       </c>
       <c r="J5" s="1">
         <f t="shared" si="0"/>
-        <v>0.97853962476788114</v>
+        <v>0.43138035735963182</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -2639,32 +2682,32 @@
         <v>13</v>
       </c>
       <c r="B6" s="1">
-        <v>-5.5748735598637804</v>
+        <v>-5.9677365119463897</v>
       </c>
       <c r="C6" s="1">
-        <v>-1.11766215875384</v>
+        <v>-0.49042891975207697</v>
       </c>
       <c r="D6" s="1">
-        <v>-3.0310416283953501</v>
+        <v>-3.7150538581611499</v>
       </c>
       <c r="E6" s="1">
-        <v>-5.6679964567913501</v>
+        <v>-5.3586690660337304</v>
       </c>
       <c r="F6" s="1">
-        <v>0.59332957523698404</v>
+        <v>-0.37994741756218198</v>
       </c>
       <c r="G6" s="1">
-        <v>-1.3830217795238799</v>
+        <v>-0.24726767227954</v>
       </c>
       <c r="H6" s="1">
-        <v>0.89550705860203095</v>
+        <v>-0.352061906694144</v>
       </c>
       <c r="I6" s="1">
-        <v>1.4460967309843</v>
+        <v>-0.235024797257188</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" si="0"/>
-        <v>-2.0693701540071676</v>
+        <v>-2.6020610217792011</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -2672,32 +2715,32 @@
         <v>14</v>
       </c>
       <c r="B7" s="1">
-        <v>-0.686056043191409</v>
+        <v>-1.09925929402925</v>
       </c>
       <c r="C7" s="1">
-        <v>-0.12379996651667501</v>
+        <v>0.50973756722131602</v>
       </c>
       <c r="D7" s="1">
-        <v>-1.77575854286948</v>
+        <v>-2.4686254514596802</v>
       </c>
       <c r="E7" s="1">
-        <v>-4.9604497378983501</v>
+        <v>-4.6488022058082699</v>
       </c>
       <c r="F7" s="1">
-        <v>-0.45351318134495899</v>
+        <v>-1.41666159032687</v>
       </c>
       <c r="G7" s="1">
-        <v>0.12534078787835101</v>
+        <v>1.27846643714368</v>
       </c>
       <c r="H7" s="1">
-        <v>1.2989582449503601</v>
+        <v>4.6400621647765698E-2</v>
       </c>
       <c r="I7" s="1">
-        <v>0.750033141991021</v>
+        <v>-0.91955351677604902</v>
       </c>
       <c r="J7" s="1">
         <f t="shared" si="0"/>
-        <v>-0.45889535264663572</v>
+        <v>-0.99442517376091577</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -2705,32 +2748,32 @@
         <v>15</v>
       </c>
       <c r="B8" s="1">
-        <v>-5.1866487517165799E-2</v>
+        <v>-0.467708332449771</v>
       </c>
       <c r="C8" s="1">
-        <v>3.3226953941751498</v>
+        <v>3.9780948346548901</v>
       </c>
       <c r="D8" s="1">
-        <v>4.8475545624155201</v>
+        <v>4.1079672678207499</v>
       </c>
       <c r="E8" s="1">
-        <v>0.290784396314406</v>
+        <v>0.61965143495560804</v>
       </c>
       <c r="F8" s="1">
-        <v>0.35048058692083101</v>
+        <v>-0.62044675372892599</v>
       </c>
       <c r="G8" s="1">
-        <v>-7.2409414633098898E-2</v>
+        <v>1.0784387809040501</v>
       </c>
       <c r="H8" s="1">
-        <v>3.27969788140889</v>
+        <v>2.0026484906250799</v>
       </c>
       <c r="I8" s="1">
-        <v>1.33239408960045</v>
+        <v>-0.34684320687256898</v>
       </c>
       <c r="J8" s="1">
         <f t="shared" si="0"/>
-        <v>2.3626943896684884</v>
+        <v>1.8178776407883253</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -2738,32 +2781,32 @@
         <v>16</v>
       </c>
       <c r="B9" s="1">
-        <v>-4.8612906580755801</v>
+        <v>-5.2571225263346397</v>
       </c>
       <c r="C9" s="1">
-        <v>-4.0267570650801403</v>
+        <v>-3.4179768790754399</v>
       </c>
       <c r="D9" s="1">
-        <v>0.53077305184123003</v>
+        <v>-0.178363968809753</v>
       </c>
       <c r="E9" s="1">
-        <v>-1.16683503481425</v>
+        <v>-0.842747727318506</v>
       </c>
       <c r="F9" s="1">
-        <v>-1.4009705784672599</v>
+        <v>-2.3549519930751801</v>
       </c>
       <c r="G9" s="1">
-        <v>-2.4384572751945401</v>
+        <v>-1.3148584298611801</v>
       </c>
       <c r="H9" s="1">
-        <v>1.80157950388193</v>
+        <v>0.54280698853684795</v>
       </c>
       <c r="I9" s="1">
-        <v>1.5056852436369399</v>
+        <v>-0.17642376006871399</v>
       </c>
       <c r="J9" s="1">
         <f t="shared" si="0"/>
-        <v>-1.7128973569193877</v>
+        <v>-2.2574717835721367</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -2771,32 +2814,32 @@
         <v>17</v>
       </c>
       <c r="B10" s="1">
-        <v>3.5912832546059599E-2</v>
+        <v>-0.38029422495349602</v>
       </c>
       <c r="C10" s="1">
-        <v>-0.93077802609152305</v>
+        <v>-0.30235933837963602</v>
       </c>
       <c r="D10" s="1">
-        <v>0.61318210213086</v>
+        <v>-9.6536226179689197E-2</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.90909918546881596</v>
+        <v>-0.58416672728413799</v>
       </c>
       <c r="F10" s="1">
-        <v>0.80356314291570496</v>
+        <v>-0.17174793599433699</v>
       </c>
       <c r="G10" s="1">
-        <v>-1.3979071779608201</v>
+        <v>-0.26232450318904499</v>
       </c>
       <c r="H10" s="1">
-        <v>1.1829206791795499</v>
+        <v>-6.8202144199006498E-2</v>
       </c>
       <c r="I10" s="1">
-        <v>1.41239542084999</v>
+        <v>-0.26816762362699698</v>
       </c>
       <c r="J10" s="1">
         <f t="shared" si="0"/>
-        <v>0.28267808235884662</v>
+        <v>-0.26183935328495456</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -2804,32 +2847,32 @@
         <v>18</v>
       </c>
       <c r="B11" s="1">
-        <v>0.33697559460380899</v>
+        <v>-8.0484057516725299E-2</v>
       </c>
       <c r="C11" s="1">
-        <v>-0.71963254091654705</v>
+        <v>-8.9874509197850699E-2</v>
       </c>
       <c r="D11" s="1">
-        <v>0.44198086763195998</v>
+        <v>-0.266529819180579</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.47396515348122098</v>
+        <v>-0.147605831987286</v>
       </c>
       <c r="F11" s="1">
-        <v>0.91739278478842701</v>
+        <v>-5.9019637242487301E-2</v>
       </c>
       <c r="G11" s="1">
-        <v>-1.2083518752918001</v>
+        <v>-7.0586125988221393E-2</v>
       </c>
       <c r="H11" s="1">
-        <v>1.21729538289527</v>
+        <v>-3.4252482338935401E-2</v>
       </c>
       <c r="I11" s="1">
-        <v>1.63092696804362</v>
+        <v>-5.3257488202032202E-2</v>
       </c>
       <c r="J11" s="1">
         <f t="shared" si="0"/>
-        <v>0.42256272234071046</v>
+        <v>-0.1225364685242968</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -2837,32 +2880,32 @@
         <v>19</v>
       </c>
       <c r="B12" s="1">
-        <v>0.21101903173367301</v>
+        <v>-0.205916568484695</v>
       </c>
       <c r="C12" s="1">
-        <v>-0.73102120762062595</v>
+        <v>-0.101335416814317</v>
       </c>
       <c r="D12" s="1">
-        <v>0.241329500943955</v>
+        <v>-0.46576580520410599</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.61611750804332199</v>
+        <v>-0.29022432333515602</v>
       </c>
       <c r="F12" s="1">
-        <v>0.87500379717607601</v>
+        <v>-0.100998496006679</v>
       </c>
       <c r="G12" s="1">
-        <v>-1.2769002368681901</v>
+        <v>-0.139923946789692</v>
       </c>
       <c r="H12" s="1">
-        <v>1.1817177978731901</v>
+        <v>-6.9390151925449894E-2</v>
       </c>
       <c r="I12" s="1">
-        <v>1.5714418312740299</v>
+        <v>-0.11175686260859399</v>
       </c>
       <c r="J12" s="1">
         <f t="shared" si="0"/>
-        <v>0.32319228908275799</v>
+        <v>-0.22119366327792797</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -2870,32 +2913,32 @@
         <v>20</v>
       </c>
       <c r="B13" s="1">
-        <v>0.74929256401070798</v>
+        <v>0.33011743564034701</v>
       </c>
       <c r="C13" s="1">
-        <v>0.70963025406015601</v>
+        <v>1.3484544259192399</v>
       </c>
       <c r="D13" s="1">
-        <v>0.82320991629180496</v>
+        <v>0.112010066514082</v>
       </c>
       <c r="E13" s="1">
-        <v>0.44349358673957301</v>
+        <v>0.77286137945833799</v>
       </c>
       <c r="F13" s="1">
-        <v>1.2368679652160099</v>
+        <v>0.25736450480119999</v>
       </c>
       <c r="G13" s="1">
-        <v>-0.76491313918160597</v>
+        <v>0.37795961476697798</v>
       </c>
       <c r="H13" s="1">
-        <v>1.5144101699665</v>
+        <v>0.25918849210884998</v>
       </c>
       <c r="I13" s="1">
-        <v>1.9003050693494501</v>
+        <v>0.211656593886345</v>
       </c>
       <c r="J13" s="1">
         <f t="shared" si="0"/>
-        <v>1.0456094509280298</v>
+        <v>0.50055963049000352</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -2903,32 +2946,32 @@
         <v>21</v>
       </c>
       <c r="B14" s="1">
-        <v>0.409545474917693</v>
+        <v>-8.2161097338033194E-3</v>
       </c>
       <c r="C14" s="1">
-        <v>-0.34460497767911202</v>
+        <v>0.28753193947392802</v>
       </c>
       <c r="D14" s="1">
-        <v>0.55154889626686698</v>
+        <v>-0.157734675733223</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.65562664623021405</v>
+        <v>-0.32986301732673101</v>
       </c>
       <c r="F14" s="1">
-        <v>0.671958585995587</v>
+        <v>-0.30207917103577098</v>
       </c>
       <c r="G14" s="1">
-        <v>-1.0808532406887099</v>
+        <v>5.8380887595153197E-2</v>
       </c>
       <c r="H14" s="1">
-        <v>1.27088838604336</v>
+        <v>1.8677845439022601E-2</v>
       </c>
       <c r="I14" s="1">
-        <v>1.9409553936891999</v>
+        <v>0.25163327835645899</v>
       </c>
       <c r="J14" s="1">
         <f t="shared" si="0"/>
-        <v>0.63936119679866199</v>
+        <v>9.3303608090840179E-2</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -2936,32 +2979,32 @@
         <v>22</v>
       </c>
       <c r="B15" s="1">
-        <v>0.66511211859645003</v>
+        <v>0.24628722940012901</v>
       </c>
       <c r="C15" s="1">
-        <v>-0.72639011789124397</v>
+        <v>-9.6674951025726999E-2</v>
       </c>
       <c r="D15" s="1">
-        <v>1.0186809342301899</v>
+        <v>0.30610224560465499</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.228654082326019</v>
+        <v>9.8509647329666106E-2</v>
       </c>
       <c r="F15" s="1">
-        <v>1.3856713382201</v>
+        <v>0.40472815113546901</v>
       </c>
       <c r="G15" s="1">
-        <v>-1.05074330955396</v>
+        <v>8.8837589423674201E-2</v>
       </c>
       <c r="H15" s="1">
-        <v>1.7863521330060399</v>
+        <v>0.52776790350124203</v>
       </c>
       <c r="I15" s="1">
-        <v>1.9532579648002899</v>
+        <v>0.26373197649644298</v>
       </c>
       <c r="J15" s="1">
         <f t="shared" si="0"/>
-        <v>0.7276652249339215</v>
+        <v>0.17986162511887499</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -2969,32 +3012,32 @@
         <v>23</v>
       </c>
       <c r="B16" s="1">
-        <v>0.54565776418939804</v>
+        <v>0.12732987396020301</v>
       </c>
       <c r="C16" s="1">
-        <v>-0.54642280778224195</v>
+        <v>8.4433932809164405E-2</v>
       </c>
       <c r="D16" s="1">
-        <v>0.32009048983593502</v>
+        <v>-0.38756039080251198</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.187367073999955</v>
+        <v>0.13993204133692</v>
       </c>
       <c r="F16" s="1">
-        <v>0.995289927570292</v>
+        <v>1.81238223956296E-2</v>
       </c>
       <c r="G16" s="1">
-        <v>-1.1108304475855799</v>
+        <v>2.8058438565835699E-2</v>
       </c>
       <c r="H16" s="1">
-        <v>1.1814428025636701</v>
+        <v>-6.9661746928815202E-2</v>
       </c>
       <c r="I16" s="1">
-        <v>1.71565288596025</v>
+        <v>3.0064387871690301E-2</v>
       </c>
       <c r="J16" s="1">
         <f t="shared" si="0"/>
-        <v>0.50874458305083525</v>
+        <v>-3.6433049040363569E-2</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -3002,124 +3045,132 @@
         <v>24</v>
       </c>
       <c r="B17" s="1">
-        <v>0.418764750282834</v>
+        <v>9.6480813188237096E-4</v>
       </c>
       <c r="C17" s="1">
-        <v>-0.63032453279890299</v>
+        <v>0</v>
       </c>
       <c r="D17" s="1">
-        <v>0.70598724469577301</v>
+        <v>-4.38572457994216E-3</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.32414637514419198</v>
+        <v>2.7042223753635701E-3</v>
       </c>
       <c r="F17" s="1">
-        <v>0.97951779214050105</v>
+        <v>2.5042881035674102E-3</v>
       </c>
       <c r="G17" s="1">
-        <v>-1.1382346948558899</v>
+        <v>3.3858147909429003E-4</v>
       </c>
       <c r="H17" s="1">
-        <v>1.2543535859008199</v>
+        <v>2.34749744808472E-3</v>
       </c>
       <c r="I17" s="1">
-        <v>1.68515133622325</v>
+        <v>6.8296832061621803E-5</v>
       </c>
       <c r="J17" s="1">
         <f t="shared" si="0"/>
-        <v>0.54489469960073844</v>
+        <v>-8.3815490399954181E-4</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>26</v>
       </c>
+      <c r="B18" s="1"/>
       <c r="C18" s="1">
-        <v>0.85684524975426801</v>
+        <v>1.4966032399331299</v>
       </c>
       <c r="D18" s="1">
-        <v>1.5611409475843101</v>
+        <v>0.84473578407934802</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.124253627445084</v>
+        <v>0.203252445414278</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1">
-        <v>-0.40701562694431598</v>
+        <v>0.73997896866714297</v>
       </c>
       <c r="H18" s="1">
-        <v>2.0738182094895801</v>
+        <v>0.81167947328719103</v>
       </c>
       <c r="I18" s="1">
-        <v>1.6204109518248699</v>
+        <v>-6.3599237476798298E-2</v>
       </c>
       <c r="J18" s="1">
         <f>AVERAGE(C18:D18,I18)</f>
-        <v>1.3461323830544829</v>
+        <v>0.75924659551189322</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>27</v>
       </c>
+      <c r="B19" s="1"/>
       <c r="C19" s="1">
-        <v>-0.52287139710718</v>
+        <v>0.108134735457791</v>
       </c>
       <c r="D19" s="1">
-        <v>0.85485881296951405</v>
+        <v>0.143435714094867</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.298856070096291</v>
+        <v>2.8077457752082299E-2</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1">
-        <v>-1.0866201118450101</v>
+        <v>5.2547600414757499E-2</v>
       </c>
       <c r="H19" s="1">
-        <v>1.4820679143045401</v>
+        <v>0.22724614716252101</v>
       </c>
       <c r="I19" s="1">
-        <v>1.7014802951146499</v>
+        <v>1.6126659168143601E-2</v>
       </c>
       <c r="J19" s="1">
         <f>AVERAGE(C19:D19,I19)</f>
-        <v>0.67782257032566129</v>
+        <v>8.9232369573600534E-2</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>28</v>
       </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
       <c r="D20" s="1">
-        <v>1.47503870663738</v>
+        <v>0.75924090229979102</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1">
-        <v>1.91115237055138</v>
-      </c>
+        <v>0.65102499103165901</v>
+      </c>
+      <c r="I20" s="1"/>
       <c r="J20" s="1">
         <f>AVERAGE(C20:D20,I20)</f>
-        <v>1.47503870663738</v>
+        <v>0.75924090229979102</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>29</v>
       </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
       <c r="D21" s="1">
-        <v>1.1318948563251201</v>
+        <v>0.41851756463533502</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1">
-        <v>1.87661641845759</v>
-      </c>
+        <v>0.61691607462335796</v>
+      </c>
+      <c r="I21" s="1"/>
       <c r="J21" s="1">
         <f>AVERAGE(C21:D21,I21)</f>
-        <v>1.1318948563251201</v>
+        <v>0.41851756463533502</v>
       </c>
     </row>
   </sheetData>
@@ -3134,7 +3185,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J21"/>
+      <selection activeCell="B2" sqref="B2:I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3176,32 +3227,32 @@
         <v>9</v>
       </c>
       <c r="B2" s="1">
-        <v>2.4589710355727599</v>
+        <v>2.0326826593120102</v>
       </c>
       <c r="C2" s="1">
-        <v>1.7794742196295501</v>
+        <v>2.4250846559560801</v>
       </c>
       <c r="D2" s="1">
-        <v>2.9458353667124002</v>
+        <v>2.21966266591429</v>
       </c>
       <c r="E2" s="1">
-        <v>1.9296818222338701</v>
+        <v>2.26392302706933</v>
       </c>
       <c r="F2" s="1">
-        <v>1.6555019340530499</v>
+        <v>0.67194803796826996</v>
       </c>
       <c r="G2" s="1">
-        <v>-0.38652173775034898</v>
+        <v>0.76070888231902201</v>
       </c>
       <c r="H2" s="1">
-        <v>2.0940865567820999</v>
+        <v>0.83169720326485497</v>
       </c>
       <c r="I2" s="1">
-        <v>2.9740814475011099</v>
+        <v>1.2676388070183799</v>
       </c>
       <c r="J2" s="1">
         <f>AVERAGE(B2:D2,I2)</f>
-        <v>2.5395905173539548</v>
+        <v>1.9862671970501899</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -3209,32 +3260,32 @@
         <v>10</v>
       </c>
       <c r="B3" s="1">
-        <v>0.49889871996739998</v>
+        <v>8.0765374313808105E-2</v>
       </c>
       <c r="C3" s="1">
-        <v>-0.91771563585526805</v>
+        <v>-0.28921409042059698</v>
       </c>
       <c r="D3" s="1">
-        <v>0.94434634577593002</v>
+        <v>0.232292008122615</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.17161587912666401</v>
+        <v>0.15573488650733699</v>
       </c>
       <c r="F3" s="1">
-        <v>1.08021764300401</v>
+        <v>0.10222983134213599</v>
       </c>
       <c r="G3" s="1">
-        <v>-1.1614021937511201</v>
+        <v>-2.3095733358990501E-2</v>
       </c>
       <c r="H3" s="1">
-        <v>1.4243360681381501</v>
+        <v>0.170228152996938</v>
       </c>
       <c r="I3" s="1">
-        <v>1.9508283046696799</v>
+        <v>0.26134257965917801</v>
       </c>
       <c r="J3" s="1">
         <f t="shared" ref="J3:J17" si="0">AVERAGE(B3:D3,I3)</f>
-        <v>0.61908943363943547</v>
+        <v>7.1296467918751022E-2</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -3242,32 +3293,32 @@
         <v>11</v>
       </c>
       <c r="B4" s="1">
-        <v>0.26536223343975102</v>
+        <v>-0.15179946582081799</v>
       </c>
       <c r="C4" s="1">
-        <v>-0.68763206157925905</v>
+        <v>-5.7671043515958101E-2</v>
       </c>
       <c r="D4" s="1">
-        <v>0.95709927137375095</v>
+        <v>0.244954975477915</v>
       </c>
       <c r="E4" s="1">
-        <v>-6.5952669887238594E-2</v>
+        <v>0.26174457969267101</v>
       </c>
       <c r="F4" s="1">
-        <v>0.545725599070363</v>
+        <v>-0.427090807972626</v>
       </c>
       <c r="G4" s="1">
-        <v>-1.4130712571205599</v>
+        <v>-0.27766322433740198</v>
       </c>
       <c r="H4" s="1">
-        <v>1.0905801676531299</v>
+        <v>-0.159400868942457</v>
       </c>
       <c r="I4" s="1">
-        <v>1.3828667879191401</v>
+        <v>-0.29720692062360399</v>
       </c>
       <c r="J4" s="1">
         <f t="shared" si="0"/>
-        <v>0.47942405778834574</v>
+        <v>-6.5430613620616265E-2</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -3275,32 +3326,32 @@
         <v>12</v>
       </c>
       <c r="B5" s="1">
-        <v>2.4886197330225102</v>
+        <v>2.06220800109103</v>
       </c>
       <c r="C5" s="1">
-        <v>0.54930974786415698</v>
+        <v>1.1871169701589901</v>
       </c>
       <c r="D5" s="1">
-        <v>1.6004695898554999</v>
+        <v>0.88378700486695305</v>
       </c>
       <c r="E5" s="1">
-        <v>1.81824237172203</v>
+        <v>2.1521181515356602</v>
       </c>
       <c r="F5" s="1">
-        <v>1.63641103079465</v>
+        <v>0.65304184613150895</v>
       </c>
       <c r="G5" s="1">
-        <v>-0.78043490571152496</v>
+        <v>0.36225908682694302</v>
       </c>
       <c r="H5" s="1">
-        <v>1.8369123077145799</v>
+        <v>0.57770290364368704</v>
       </c>
       <c r="I5" s="1">
-        <v>2.2218209733891099</v>
+        <v>0.52784447323732198</v>
       </c>
       <c r="J5" s="1">
         <f t="shared" si="0"/>
-        <v>1.7150550110328193</v>
+        <v>1.1652391123385739</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -3308,32 +3359,32 @@
         <v>13</v>
       </c>
       <c r="B6" s="1">
-        <v>-5.5768501760761797</v>
+        <v>-5.9697049042960399</v>
       </c>
       <c r="C6" s="1">
-        <v>-1.1120085988505399</v>
+        <v>-0.48473949802787503</v>
       </c>
       <c r="D6" s="1">
-        <v>-3.0458697594250501</v>
+        <v>-3.7297773925947899</v>
       </c>
       <c r="E6" s="1">
-        <v>-5.6736164421226203</v>
+        <v>-5.3643074800565804</v>
       </c>
       <c r="F6" s="1">
-        <v>0.59332957523698404</v>
+        <v>-0.37994741756218198</v>
       </c>
       <c r="G6" s="1">
-        <v>-1.3830217795238799</v>
+        <v>-0.24726767227954</v>
       </c>
       <c r="H6" s="1">
-        <v>0.89550705860203095</v>
+        <v>-0.352061906694144</v>
       </c>
       <c r="I6" s="1">
-        <v>1.4460967309843</v>
+        <v>-0.235024797257188</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" si="0"/>
-        <v>-2.0721579508418677</v>
+        <v>-2.6048116480439734</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -3341,32 +3392,32 @@
         <v>14</v>
       </c>
       <c r="B7" s="1">
-        <v>-0.686056043191409</v>
+        <v>-1.09925929402925</v>
       </c>
       <c r="C7" s="1">
-        <v>-0.12379996651667501</v>
+        <v>0.50973756722131602</v>
       </c>
       <c r="D7" s="1">
-        <v>-1.77575854286948</v>
+        <v>-2.4686254514596802</v>
       </c>
       <c r="E7" s="1">
-        <v>-4.9604497378983501</v>
+        <v>-4.6488022058082699</v>
       </c>
       <c r="F7" s="1">
-        <v>-0.45351318134495899</v>
+        <v>-1.41666159032687</v>
       </c>
       <c r="G7" s="1">
-        <v>0.12534078787835101</v>
+        <v>1.27846643714368</v>
       </c>
       <c r="H7" s="1">
-        <v>1.2989582449503601</v>
+        <v>4.6400621647765698E-2</v>
       </c>
       <c r="I7" s="1">
-        <v>0.750033141991021</v>
+        <v>-0.91955351677604902</v>
       </c>
       <c r="J7" s="1">
         <f t="shared" si="0"/>
-        <v>-0.45889535264663572</v>
+        <v>-0.99442517376091577</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -3374,32 +3425,32 @@
         <v>15</v>
       </c>
       <c r="B8" s="1">
-        <v>-5.1866487517165799E-2</v>
+        <v>-0.467708332449771</v>
       </c>
       <c r="C8" s="1">
-        <v>3.3226953941751498</v>
+        <v>3.9780948346548901</v>
       </c>
       <c r="D8" s="1">
-        <v>4.8475545624155201</v>
+        <v>4.1079672678207499</v>
       </c>
       <c r="E8" s="1">
-        <v>0.290784396314406</v>
+        <v>0.61965143495560804</v>
       </c>
       <c r="F8" s="1">
-        <v>0.35048058692083101</v>
+        <v>-0.62044675372892599</v>
       </c>
       <c r="G8" s="1">
-        <v>-7.2409414633098898E-2</v>
+        <v>1.0784387809040501</v>
       </c>
       <c r="H8" s="1">
-        <v>3.27969788140889</v>
+        <v>2.0026484906250799</v>
       </c>
       <c r="I8" s="1">
-        <v>1.33239408960045</v>
+        <v>-0.34684320687256898</v>
       </c>
       <c r="J8" s="1">
         <f t="shared" si="0"/>
-        <v>2.3626943896684884</v>
+        <v>1.8178776407883253</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -3407,32 +3458,32 @@
         <v>16</v>
       </c>
       <c r="B9" s="1">
-        <v>-4.8612906580755801</v>
+        <v>-5.2571225263346397</v>
       </c>
       <c r="C9" s="1">
-        <v>-4.0267570650801403</v>
+        <v>-3.4179768790754399</v>
       </c>
       <c r="D9" s="1">
-        <v>0.53077305184123003</v>
+        <v>-0.178363968809753</v>
       </c>
       <c r="E9" s="1">
-        <v>-1.16683503481425</v>
+        <v>-0.842747727318506</v>
       </c>
       <c r="F9" s="1">
-        <v>-1.4009705784672599</v>
+        <v>-2.3549519930751801</v>
       </c>
       <c r="G9" s="1">
-        <v>-2.4384572751945401</v>
+        <v>-1.3148584298611801</v>
       </c>
       <c r="H9" s="1">
-        <v>1.80157950388193</v>
+        <v>0.54280698853684795</v>
       </c>
       <c r="I9" s="1">
-        <v>1.5056852436369399</v>
+        <v>-0.17642376006871399</v>
       </c>
       <c r="J9" s="1">
         <f t="shared" si="0"/>
-        <v>-1.7128973569193877</v>
+        <v>-2.2574717835721367</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -3440,32 +3491,32 @@
         <v>17</v>
       </c>
       <c r="B10" s="1">
-        <v>-0.48344770385810398</v>
+        <v>-0.89749392216983803</v>
       </c>
       <c r="C10" s="1">
-        <v>-1.17482859978371</v>
+        <v>-0.54795798056574696</v>
       </c>
       <c r="D10" s="1">
-        <v>0.533648865555434</v>
+        <v>-0.17550844088374401</v>
       </c>
       <c r="E10" s="1">
-        <v>-1.7542617174141599</v>
+        <v>-1.4321006614148799</v>
       </c>
       <c r="F10" s="1">
-        <v>0.56994686550273099</v>
+        <v>-0.40310389108862898</v>
       </c>
       <c r="G10" s="1">
-        <v>-1.6991314495515399</v>
+        <v>-0.567017920862254</v>
       </c>
       <c r="H10" s="1">
-        <v>1.15614708916287</v>
+        <v>-9.4644679831121306E-2</v>
       </c>
       <c r="I10" s="1">
-        <v>1.2011437801206699</v>
+        <v>-0.47591849209843801</v>
       </c>
       <c r="J10" s="1">
         <f t="shared" si="0"/>
-        <v>1.9129085508572508E-2</v>
+        <v>-0.5242197089294417</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -3473,32 +3524,32 @@
         <v>18</v>
       </c>
       <c r="B11" s="1">
-        <v>0.21128648865039601</v>
+        <v>-0.205650224342906</v>
       </c>
       <c r="C11" s="1">
-        <v>-0.85557267431542605</v>
+        <v>-0.22667694189146301</v>
       </c>
       <c r="D11" s="1">
-        <v>-4.2956163298279497E-2</v>
+        <v>-0.74804613831404598</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.71136453785501397</v>
+        <v>-0.385783681032426</v>
       </c>
       <c r="F11" s="1">
-        <v>0.84625764873521303</v>
+        <v>-0.12946651502258699</v>
       </c>
       <c r="G11" s="1">
-        <v>-1.32648265653255</v>
+        <v>-0.190077398316889</v>
       </c>
       <c r="H11" s="1">
-        <v>1.1026819637769101</v>
+        <v>-0.147448711050433</v>
       </c>
       <c r="I11" s="1">
-        <v>1.5549170482813599</v>
+        <v>-0.12800780393230499</v>
       </c>
       <c r="J11" s="1">
         <f t="shared" si="0"/>
-        <v>0.2169186748295126</v>
+        <v>-0.32709527712017999</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -3506,32 +3557,32 @@
         <v>19</v>
       </c>
       <c r="B12" s="1">
-        <v>-0.14335186142585599</v>
+        <v>-0.55881307447136597</v>
       </c>
       <c r="C12" s="1">
-        <v>-0.89865716935543405</v>
+        <v>-0.27003473171762399</v>
       </c>
       <c r="D12" s="1">
-        <v>-0.44469124328229998</v>
+        <v>-1.14694740722647</v>
       </c>
       <c r="E12" s="1">
-        <v>-1.0753391517452799</v>
+        <v>-0.75095181688118096</v>
       </c>
       <c r="F12" s="1">
-        <v>0.78330419239576599</v>
+        <v>-0.191810873811221</v>
       </c>
       <c r="G12" s="1">
-        <v>-1.40806367928481</v>
+        <v>-0.272597975122986</v>
       </c>
       <c r="H12" s="1">
-        <v>1.1110453541660399</v>
+        <v>-0.13918873365360401</v>
       </c>
       <c r="I12" s="1">
-        <v>1.41981134243063</v>
+        <v>-0.26087459554175102</v>
       </c>
       <c r="J12" s="1">
         <f t="shared" si="0"/>
-        <v>-1.6722232908240042E-2</v>
+        <v>-0.55916745223930275</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -3539,32 +3590,32 @@
         <v>20</v>
       </c>
       <c r="B13" s="1">
-        <v>1.3822223535723399</v>
+        <v>0.96041387246036103</v>
       </c>
       <c r="C13" s="1">
-        <v>3.2406682688982</v>
+        <v>3.8955473925994601</v>
       </c>
       <c r="D13" s="1">
-        <v>1.10038282054847</v>
+        <v>0.38722781254841498</v>
       </c>
       <c r="E13" s="1">
-        <v>2.1671625811985802</v>
+        <v>2.50218251754367</v>
       </c>
       <c r="F13" s="1">
-        <v>1.66636587040795</v>
+        <v>0.682706861793834</v>
       </c>
       <c r="G13" s="1">
-        <v>2.1813837012731398E-2</v>
+        <v>1.17374718489368</v>
       </c>
       <c r="H13" s="1">
-        <v>1.9992425208597899</v>
+        <v>0.738025910105923</v>
       </c>
       <c r="I13" s="1">
-        <v>2.28946380847208</v>
+        <v>0.59436636005364096</v>
       </c>
       <c r="J13" s="1">
         <f t="shared" si="0"/>
-        <v>2.0031843128727722</v>
+        <v>1.4593888594154691</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -3572,32 +3623,32 @@
         <v>21</v>
       </c>
       <c r="B14" s="1">
-        <v>1.0568516816458899</v>
+        <v>0.63639693007088405</v>
       </c>
       <c r="C14" s="1">
-        <v>0.66100978710227698</v>
+        <v>1.29952554824174</v>
       </c>
       <c r="D14" s="1">
-        <v>0.33590347313249902</v>
+        <v>-0.37185895118080597</v>
       </c>
       <c r="E14" s="1">
-        <v>0.53438124822914301</v>
+        <v>0.86404707387548996</v>
       </c>
       <c r="F14" s="1">
-        <v>0.38387165041534499</v>
+        <v>-0.58737876089925201</v>
       </c>
       <c r="G14" s="1">
-        <v>-0.65118377618896395</v>
+        <v>0.49299877850046597</v>
       </c>
       <c r="H14" s="1">
-        <v>1.1535860744720501</v>
+        <v>-9.7174027676303704E-2</v>
       </c>
       <c r="I14" s="1">
-        <v>2.9533047639164001</v>
+        <v>1.24720642578916</v>
       </c>
       <c r="J14" s="1">
         <f t="shared" si="0"/>
-        <v>1.2517674264492666</v>
+        <v>0.70281748823024448</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -3605,32 +3656,32 @@
         <v>22</v>
       </c>
       <c r="B15" s="1">
-        <v>1.36908481437395</v>
+        <v>0.94733099299743895</v>
       </c>
       <c r="C15" s="1">
-        <v>-0.999501796862999</v>
+        <v>-0.37151903971544098</v>
       </c>
       <c r="D15" s="1">
-        <v>1.4932160024803101</v>
+        <v>0.77728997677302702</v>
       </c>
       <c r="E15" s="1">
-        <v>2.9102942090037501E-2</v>
+        <v>0.35711189187057202</v>
       </c>
       <c r="F15" s="1">
-        <v>1.94483230152807</v>
+        <v>0.95847902907140703</v>
       </c>
       <c r="G15" s="1">
-        <v>-0.97731849134204696</v>
+        <v>0.16310802813991601</v>
       </c>
       <c r="H15" s="1">
-        <v>2.0517452895999302</v>
+        <v>0.78987948418139198</v>
       </c>
       <c r="I15" s="1">
-        <v>2.3811425304445599</v>
+        <v>0.68452582127429595</v>
       </c>
       <c r="J15" s="1">
         <f t="shared" si="0"/>
-        <v>1.0609853876089552</v>
+        <v>0.50940693783233026</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -3638,32 +3689,32 @@
         <v>23</v>
       </c>
       <c r="B16" s="1">
-        <v>0.57157481962109902</v>
+        <v>0.153139099502869</v>
       </c>
       <c r="C16" s="1">
-        <v>-0.52054674407377399</v>
+        <v>0.11047413429599399</v>
       </c>
       <c r="D16" s="1">
-        <v>0.37119461343567101</v>
+        <v>-0.33681675210558099</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.16208288558206499</v>
+        <v>0.165299140026371</v>
       </c>
       <c r="F16" s="1">
-        <v>1.0376702144349399</v>
+        <v>6.0094064595012299E-2</v>
       </c>
       <c r="G16" s="1">
-        <v>-1.0837467279719</v>
+        <v>5.5454076536227997E-2</v>
       </c>
       <c r="H16" s="1">
-        <v>1.1210097041345399</v>
+        <v>-0.12934759247945499</v>
       </c>
       <c r="I16" s="1">
-        <v>1.7647370689677899</v>
+        <v>7.8335168694132998E-2</v>
       </c>
       <c r="J16" s="1">
         <f t="shared" si="0"/>
-        <v>0.5467399394876965</v>
+        <v>1.2829125968537476E-3</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -3671,32 +3722,32 @@
         <v>24</v>
       </c>
       <c r="B17" s="1">
-        <v>1.16101981744989</v>
+        <v>0.74013166638803296</v>
       </c>
       <c r="C17" s="1">
-        <v>-0.62141854575835498</v>
+        <v>8.9624797491538507E-3</v>
       </c>
       <c r="D17" s="1">
-        <v>1.5758641486595399</v>
+        <v>0.85935512872705899</v>
       </c>
       <c r="E17" s="1">
-        <v>9.6740859016154299E-2</v>
+        <v>0.42497160266910899</v>
       </c>
       <c r="F17" s="1">
-        <v>1.2349156375825401</v>
+        <v>0.25543106664655502</v>
       </c>
       <c r="G17" s="1">
-        <v>-1.13771639639791</v>
+        <v>8.62849087751949E-4</v>
       </c>
       <c r="H17" s="1">
-        <v>2.2475767561854298</v>
+        <v>0.98328950240647495</v>
       </c>
       <c r="I17" s="1">
-        <v>1.82018671338594</v>
+        <v>0.13286592521054499</v>
       </c>
       <c r="J17" s="1">
         <f t="shared" si="0"/>
-        <v>0.98391303343425385</v>
+        <v>0.43532880001869773</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -3705,27 +3756,27 @@
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1">
-        <v>3.01159071565014</v>
+        <v>3.6650167481437799</v>
       </c>
       <c r="D18" s="1">
-        <v>2.07371977758471</v>
+        <v>1.3536989189714601</v>
       </c>
       <c r="E18" s="1">
-        <v>0.21344246498591099</v>
+        <v>0.54205588897974599</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1">
-        <v>0.40468857422989202</v>
+        <v>1.5610314220083401</v>
       </c>
       <c r="H18" s="1">
-        <v>3.6642317075795399</v>
+        <v>2.3824275712017799</v>
       </c>
       <c r="I18" s="1">
-        <v>1.79828935634269</v>
+        <v>0.11133144184626199</v>
       </c>
       <c r="J18" s="1">
         <f>AVERAGE(C18:D18,I18)</f>
-        <v>2.2945332831925134</v>
+        <v>1.7100157029871672</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -3734,27 +3785,27 @@
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1">
-        <v>-0.31265848534568003</v>
+        <v>0.31968107570007698</v>
       </c>
       <c r="D19" s="1">
-        <v>1.0795864930733401</v>
+        <v>0.36657818090838901</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.26898578824953701</v>
+        <v>5.8045688290667599E-2</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1">
-        <v>-1.0618077014817</v>
+        <v>7.7645770872221603E-2</v>
       </c>
       <c r="H19" s="1">
-        <v>1.1850821890831</v>
+        <v>-6.6067361280154294E-2</v>
       </c>
       <c r="I19" s="1">
-        <v>1.7154668435610601</v>
+        <v>2.98814284879385E-2</v>
       </c>
       <c r="J19" s="1">
         <f>AVERAGE(C19:D19,I19)</f>
-        <v>0.82746495042957335</v>
+        <v>0.23871356169880151</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -3764,18 +3815,18 @@
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1">
-        <v>2.0212380480793199</v>
+        <v>1.3015873919043</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1">
-        <v>2.2547512059096202</v>
+        <v>0.99037524034279401</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1">
         <f t="shared" ref="J20" si="1">AVERAGE(B20:D20,I20)</f>
-        <v>2.0212380480793199</v>
+        <v>1.3015873919043</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -3785,18 +3836,18 @@
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1">
-        <v>1.8075953198010599</v>
+        <v>1.0894516844438</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1">
-        <v>2.89458668919614</v>
+        <v>1.6222991831146301</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1">
         <f>AVERAGE(C21:D21,I21)</f>
-        <v>1.8075953198010599</v>
+        <v>1.0894516844438</v>
       </c>
     </row>
   </sheetData>
@@ -3807,15 +3858,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -3831,9 +3885,21 @@
       <c r="E1" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="F1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B2">
@@ -3848,9 +3914,21 @@
       <c r="E2">
         <v>2.5395905173539548</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="F2" s="1">
+        <v>-1.9224131594363676</v>
+      </c>
+      <c r="G2" s="1">
+        <v>-0.64215382753916295</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.63017231059050705</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1.9862671970501899</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B3">
@@ -3865,9 +3943,21 @@
       <c r="E3">
         <v>0.61908943363943547</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="F3" s="1">
+        <v>0.13106184309641716</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3.0304279507574746E-2</v>
+      </c>
+      <c r="H3" s="1">
+        <v>-2.6977769343167514E-3</v>
+      </c>
+      <c r="I3" s="1">
+        <v>7.1296467918751022E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B4">
@@ -3882,9 +3972,21 @@
       <c r="E4">
         <v>0.47942405778834574</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+      <c r="F4" s="1">
+        <v>0.63382330920148533</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.11802516366429011</v>
+      </c>
+      <c r="H4" s="1">
+        <v>-4.3168017824181046E-2</v>
+      </c>
+      <c r="I4" s="1">
+        <v>-6.5430613620616265E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B5">
@@ -3899,9 +4001,21 @@
       <c r="E5">
         <v>1.7150550110328193</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+      <c r="F5" s="1">
+        <v>-1.5276313772642158</v>
+      </c>
+      <c r="G5" s="1">
+        <v>-0.48465048566057173</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.43138035735963182</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1.1652391123385739</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B6">
@@ -3916,9 +4030,21 @@
       <c r="E6">
         <v>-2.0721579508418677</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+      <c r="F6" s="1">
+        <v>0.94064895984933283</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.94064895984933283</v>
+      </c>
+      <c r="H6" s="1">
+        <v>-2.6020610217792011</v>
+      </c>
+      <c r="I6" s="1">
+        <v>-2.6048116480439734</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B7">
@@ -3933,9 +4059,21 @@
       <c r="E7">
         <v>-0.45889535264663572</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+      <c r="F7" s="1">
+        <v>3.2249699893868629</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3.2249699893868629</v>
+      </c>
+      <c r="H7" s="1">
+        <v>-0.99442517376091577</v>
+      </c>
+      <c r="I7" s="1">
+        <v>-0.99442517376091577</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B8">
@@ -3950,9 +4088,21 @@
       <c r="E8">
         <v>2.3626943896684884</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
+      <c r="F8" s="1">
+        <v>4.5574665690113267</v>
+      </c>
+      <c r="G8" s="1">
+        <v>4.5574665690113267</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1.8178776407883253</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1.8178776407883253</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B9">
@@ -3967,10 +4117,22 @@
       <c r="E9">
         <v>-1.7128973569193877</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
-        <v>17</v>
+      <c r="F9" s="1">
+        <v>3.0453203990333773</v>
+      </c>
+      <c r="G9" s="1">
+        <v>3.0453203990333773</v>
+      </c>
+      <c r="H9" s="1">
+        <v>-2.2574717835721367</v>
+      </c>
+      <c r="I9" s="1">
+        <v>-2.2574717835721367</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="B10">
         <v>1.783150970781664</v>
@@ -3984,10 +4146,22 @@
       <c r="E10">
         <v>1.9129085508572508E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
-        <v>18</v>
+      <c r="F10" s="1">
+        <v>1.2292494550924475</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.37813477090755426</v>
+      </c>
+      <c r="H10" s="1">
+        <v>-0.26183935328495456</v>
+      </c>
+      <c r="I10" s="1">
+        <v>-0.5242197089294417</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="B11">
         <v>1.0144588727720012</v>
@@ -4001,10 +4175,22 @@
       <c r="E11">
         <v>0.2169186748295126</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
-        <v>19</v>
+      <c r="F11" s="1">
+        <v>0.46573275372115552</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.13578932314054892</v>
+      </c>
+      <c r="H11" s="1">
+        <v>-0.1225364685242968</v>
+      </c>
+      <c r="I11" s="1">
+        <v>-0.32709527712017999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>40</v>
       </c>
       <c r="B12">
         <v>1.5173149675542035</v>
@@ -4018,10 +4204,22 @@
       <c r="E12">
         <v>-1.6722232908240042E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>20</v>
+      <c r="F12" s="1">
+        <v>0.96548037493956529</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.28483355839186297</v>
+      </c>
+      <c r="H12" s="1">
+        <v>-0.22119366327792797</v>
+      </c>
+      <c r="I12" s="1">
+        <v>-0.55916745223930275</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="B13">
         <v>-0.50728555766755368</v>
@@ -4035,10 +4233,22 @@
       <c r="E13">
         <v>2.0031843128727722</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
-        <v>21</v>
+      <c r="F13" s="1">
+        <v>-1.0535742068433418</v>
+      </c>
+      <c r="G13" s="1">
+        <v>-0.44785832225021921</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.50055963049000352</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1.4593888594154691</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="B14">
         <v>2.0396232157009213</v>
@@ -4052,10 +4262,22 @@
       <c r="E14">
         <v>1.2517674264492666</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
-        <v>22</v>
+      <c r="F14" s="1">
+        <v>1.483052274545783</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.32762209923687213</v>
+      </c>
+      <c r="H14" s="1">
+        <v>9.3303608090840179E-2</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.70281748823024448</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="B15">
         <v>4.3713302396392151E-2</v>
@@ -4069,9 +4291,21 @@
       <c r="E15">
         <v>1.0609853876089552</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
+      <c r="F15" s="1">
+        <v>-0.49807845415823615</v>
+      </c>
+      <c r="G15" s="1">
+        <v>-0.15705976437383529</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.17986162511887499</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0.50940693783233026</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B16">
@@ -4086,9 +4320,21 @@
       <c r="E16">
         <v>0.5467399394876965</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
+      <c r="F16" s="1">
+        <v>-3.7876239716587261E-2</v>
+      </c>
+      <c r="G16" s="1">
+        <v>-4.4326583062235022E-3</v>
+      </c>
+      <c r="H16" s="1">
+        <v>-3.6433049040363569E-2</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1.2829125968537476E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
         <v>24</v>
       </c>
       <c r="B17">
@@ -4103,9 +4349,21 @@
       <c r="E17">
         <v>0.98391303343425385</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
+      <c r="F17" s="1">
+        <v>-0.34990184652469436</v>
+      </c>
+      <c r="G17" s="1">
+        <v>2.8818932967924625E-3</v>
+      </c>
+      <c r="H17" s="1">
+        <v>-8.3815490399954181E-4</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0.43532880001869773</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
         <v>26</v>
       </c>
       <c r="B18">
@@ -4120,10 +4378,22 @@
       <c r="E18">
         <v>2.2945332831925134</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
-        <v>27</v>
+      <c r="F18" s="1">
+        <v>-3.450570973770883</v>
+      </c>
+      <c r="G18" s="1">
+        <v>-0.89505978455472535</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0.75924659551189322</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1.7100157029871672</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>42</v>
       </c>
       <c r="B19">
         <v>0.13773856673539156</v>
@@ -4137,10 +4407,22 @@
       <c r="E19">
         <v>0.82746495042957335</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
-        <v>28</v>
+      <c r="F19" s="1">
+        <v>-0.45019420060978382</v>
+      </c>
+      <c r="G19" s="1">
+        <v>-0.12365775307587368</v>
+      </c>
+      <c r="H19" s="1">
+        <v>8.9232369573600534E-2</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0.23871356169880151</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="B20">
         <v>-2.6634604371572701</v>
@@ -4154,10 +4436,22 @@
       <c r="E20">
         <v>2.0212380480793199</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
-        <v>29</v>
+      <c r="F20" s="1">
+        <v>-3.3500655588594199</v>
+      </c>
+      <c r="G20" s="1">
+        <v>-0.91454161781440302</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0.75924090229979102</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1.3015873919043</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="B21">
         <v>-0.68244234513778101</v>
@@ -4170,6 +4464,18 @@
       </c>
       <c r="E21">
         <v>1.8075953198010599</v>
+      </c>
+      <c r="F21" s="1">
+        <v>-1.3830214294882299</v>
+      </c>
+      <c r="G21" s="1">
+        <v>-0.340535579279022</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.41851756463533502</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1.0894516844438</v>
       </c>
     </row>
   </sheetData>
@@ -4182,8 +4488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection sqref="A1:C81"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4213,7 +4519,7 @@
         <v>-30</v>
       </c>
       <c r="C2" s="9">
-        <v>-1.3841045003799375</v>
+        <v>-1.9224131594363676</v>
       </c>
       <c r="F2" s="9"/>
     </row>
@@ -4225,7 +4531,7 @@
         <v>-30</v>
       </c>
       <c r="C3" s="9">
-        <v>0.67688041976189073</v>
+        <v>0.13106184309641716</v>
       </c>
       <c r="F3" s="9"/>
     </row>
@@ -4237,7 +4543,7 @@
         <v>-30</v>
       </c>
       <c r="C4" s="9">
-        <v>1.183037217657632</v>
+        <v>0.63382330920148533</v>
       </c>
       <c r="F4" s="9"/>
     </row>
@@ -4249,7 +4555,7 @@
         <v>-30</v>
       </c>
       <c r="C5" s="9">
-        <v>-0.9861770848759126</v>
+        <v>-1.5276313772642158</v>
       </c>
       <c r="F5" s="9"/>
     </row>
@@ -4261,7 +4567,7 @@
         <v>-30</v>
       </c>
       <c r="C6" s="9">
-        <v>1.4990264265559876</v>
+        <v>0.94064895984933283</v>
       </c>
       <c r="F6" s="9"/>
     </row>
@@ -4273,7 +4579,7 @@
         <v>-30</v>
       </c>
       <c r="C7" s="9">
-        <v>3.7845933928034174</v>
+        <v>3.2249699893868629</v>
       </c>
       <c r="F7" s="9"/>
     </row>
@@ -4285,7 +4591,7 @@
         <v>-30</v>
       </c>
       <c r="C8" s="9">
-        <v>5.1328028173344258</v>
+        <v>4.5574665690113267</v>
       </c>
       <c r="F8" s="9"/>
     </row>
@@ -4297,7 +4603,7 @@
         <v>-30</v>
       </c>
       <c r="C9" s="9">
-        <v>3.6169002275821849</v>
+        <v>3.0453203990333773</v>
       </c>
       <c r="F9" s="9"/>
     </row>
@@ -4309,7 +4615,7 @@
         <v>-30</v>
       </c>
       <c r="C10" s="9">
-        <v>1.783150970781664</v>
+        <v>1.2292494550924475</v>
       </c>
       <c r="F10" s="9"/>
     </row>
@@ -4321,7 +4627,7 @@
         <v>-30</v>
       </c>
       <c r="C11" s="9">
-        <v>1.0144588727720012</v>
+        <v>0.46573275372115552</v>
       </c>
       <c r="F11" s="9"/>
     </row>
@@ -4333,7 +4639,7 @@
         <v>-30</v>
       </c>
       <c r="C12" s="9">
-        <v>1.5173149675542035</v>
+        <v>0.96548037493956529</v>
       </c>
       <c r="F12" s="9"/>
     </row>
@@ -4345,7 +4651,7 @@
         <v>-30</v>
       </c>
       <c r="C13" s="9">
-        <v>-0.50728555766755368</v>
+        <v>-1.0535742068433418</v>
       </c>
       <c r="F13" s="9"/>
     </row>
@@ -4357,7 +4663,7 @@
         <v>-30</v>
       </c>
       <c r="C14" s="9">
-        <v>2.0396232157009213</v>
+        <v>1.483052274545783</v>
       </c>
       <c r="F14" s="9"/>
     </row>
@@ -4369,7 +4675,7 @@
         <v>-30</v>
       </c>
       <c r="C15" s="9">
-        <v>4.3713302396392151E-2</v>
+        <v>-0.49807845415823615</v>
       </c>
       <c r="F15" s="9"/>
     </row>
@@ -4381,7 +4687,7 @@
         <v>-30</v>
       </c>
       <c r="C16" s="9">
-        <v>0.50805057033045342</v>
+        <v>-3.7876239716587261E-2</v>
       </c>
       <c r="F16" s="9"/>
     </row>
@@ -4393,7 +4699,7 @@
         <v>-30</v>
       </c>
       <c r="C17" s="9">
-        <v>0.1940077558420277</v>
+        <v>-0.34990184652469436</v>
       </c>
       <c r="F17" s="9"/>
     </row>
@@ -4405,7 +4711,7 @@
         <v>-30</v>
       </c>
       <c r="C18" s="9">
-        <v>-2.8588964577856402</v>
+        <v>-3.450570973770883</v>
       </c>
       <c r="F18" s="9"/>
     </row>
@@ -4417,7 +4723,7 @@
         <v>-30</v>
       </c>
       <c r="C19" s="9">
-        <v>0.13773856673539156</v>
+        <v>-0.45019420060978382</v>
       </c>
       <c r="F19" s="9"/>
     </row>
@@ -4429,7 +4735,7 @@
         <v>-30</v>
       </c>
       <c r="C20" s="9">
-        <v>-2.6634604371572701</v>
+        <v>-3.3500655588594199</v>
       </c>
       <c r="F20" s="9"/>
     </row>
@@ -4441,7 +4747,7 @@
         <v>-30</v>
       </c>
       <c r="C21" s="9">
-        <v>-0.68244234513778101</v>
+        <v>-1.3830214294882299</v>
       </c>
       <c r="F21" s="9"/>
     </row>
@@ -4453,7 +4759,7 @@
         <v>-10</v>
       </c>
       <c r="C22" s="9">
-        <v>-9.8792312526566561E-2</v>
+        <v>-0.64215382753916295</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -4464,7 +4770,7 @@
         <v>-10</v>
       </c>
       <c r="C23" s="9">
-        <v>0.57584338703525728</v>
+        <v>3.0304279507574746E-2</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -4475,7 +4781,7 @@
         <v>-10</v>
       </c>
       <c r="C24" s="9">
-        <v>0.66454947609005721</v>
+        <v>0.11802516366429011</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -4486,7 +4792,7 @@
         <v>-10</v>
       </c>
       <c r="C25" s="9">
-        <v>5.9574925610393736E-2</v>
+        <v>-0.48465048566057173</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -4497,7 +4803,7 @@
         <v>-10</v>
       </c>
       <c r="C26" s="9">
-        <v>1.4990264265559876</v>
+        <v>0.94064895984933283</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -4508,7 +4814,7 @@
         <v>-10</v>
       </c>
       <c r="C27" s="9">
-        <v>3.7845933928034174</v>
+        <v>3.2249699893868629</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -4519,7 +4825,7 @@
         <v>-10</v>
       </c>
       <c r="C28" s="9">
-        <v>5.1328028173344258</v>
+        <v>4.5574665690113267</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -4530,7 +4836,7 @@
         <v>-10</v>
       </c>
       <c r="C29" s="9">
-        <v>3.6169002275821849</v>
+        <v>3.0453203990333773</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -4541,7 +4847,7 @@
         <v>-10</v>
       </c>
       <c r="C30" s="9">
-        <v>0.92623775563706101</v>
+        <v>0.37813477090755426</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -4552,7 +4858,7 @@
         <v>-10</v>
       </c>
       <c r="C31" s="9">
-        <v>0.68236946705434998</v>
+        <v>0.13578932314054892</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -4563,7 +4869,7 @@
         <v>-10</v>
       </c>
       <c r="C32" s="9">
-        <v>0.83264183776344025</v>
+        <v>0.28483355839186297</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -4574,7 +4880,7 @@
         <v>-10</v>
       </c>
       <c r="C33" s="9">
-        <v>9.8973891495675481E-2</v>
+        <v>-0.44785832225021921</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -4585,7 +4891,7 @@
         <v>-10</v>
       </c>
       <c r="C34" s="9">
-        <v>0.87691304848117069</v>
+        <v>0.32762209923687213</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -4596,7 +4902,7 @@
         <v>-10</v>
       </c>
       <c r="C35" s="9">
-        <v>0.3871391757587585</v>
+        <v>-0.15705976437383529</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -4607,7 +4913,7 @@
         <v>-10</v>
       </c>
       <c r="C36" s="9">
-        <v>0.54143862772351148</v>
+        <v>-4.4326583062235022E-3</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -4618,7 +4924,7 @@
         <v>-10</v>
       </c>
       <c r="C37" s="9">
-        <v>0.54863680168771145</v>
+        <v>2.8818932967924625E-3</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -4629,7 +4935,7 @@
         <v>-10</v>
       </c>
       <c r="C38" s="9">
-        <v>-0.30572186080522906</v>
+        <v>-0.89505978455472535</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -4640,7 +4946,7 @@
         <v>-10</v>
       </c>
       <c r="C39" s="9">
-        <v>0.46457220234863428</v>
+        <v>-0.12365775307587368</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -4651,7 +4957,7 @@
         <v>-10</v>
       </c>
       <c r="C40" s="9">
-        <v>-0.21063443355401801</v>
+        <v>-0.91454161781440302</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -4662,7 +4968,7 @@
         <v>-10</v>
       </c>
       <c r="C41" s="9">
-        <v>0.36744936756056401</v>
+        <v>-0.340535579279022</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -4673,7 +4979,7 @@
         <v>10</v>
       </c>
       <c r="C42" s="9">
-        <v>1.1784366438839498</v>
+        <v>0.63017231059050705</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -4684,7 +4990,7 @@
         <v>10</v>
       </c>
       <c r="C43" s="9">
-        <v>0.54340890936709552</v>
+        <v>-2.6977769343167514E-3</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -4695,7 +5001,7 @@
         <v>10</v>
       </c>
       <c r="C44" s="9">
-        <v>0.50208086187763146</v>
+        <v>-4.3168017824181046E-2</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -4706,7 +5012,7 @@
         <v>10</v>
       </c>
       <c r="C45" s="9">
-        <v>0.97853962476788114</v>
+        <v>0.43138035735963182</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -4717,7 +5023,7 @@
         <v>10</v>
       </c>
       <c r="C46" s="9">
-        <v>-2.0693701540071676</v>
+        <v>-2.6020610217792011</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -4728,7 +5034,7 @@
         <v>10</v>
       </c>
       <c r="C47" s="9">
-        <v>-0.45889535264663572</v>
+        <v>-0.99442517376091577</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -4739,7 +5045,7 @@
         <v>10</v>
       </c>
       <c r="C48" s="9">
-        <v>2.3626943896684884</v>
+        <v>1.8178776407883253</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -4750,7 +5056,7 @@
         <v>10</v>
       </c>
       <c r="C49" s="9">
-        <v>-1.7128973569193877</v>
+        <v>-2.2574717835721367</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -4761,7 +5067,7 @@
         <v>10</v>
       </c>
       <c r="C50" s="9">
-        <v>0.28267808235884662</v>
+        <v>-0.26183935328495456</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -4772,7 +5078,7 @@
         <v>10</v>
       </c>
       <c r="C51" s="9">
-        <v>0.42256272234071046</v>
+        <v>-0.1225364685242968</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -4783,7 +5089,7 @@
         <v>10</v>
       </c>
       <c r="C52" s="9">
-        <v>0.32319228908275799</v>
+        <v>-0.22119366327792797</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -4794,7 +5100,7 @@
         <v>10</v>
       </c>
       <c r="C53" s="9">
-        <v>1.0456094509280298</v>
+        <v>0.50055963049000352</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -4805,7 +5111,7 @@
         <v>10</v>
       </c>
       <c r="C54" s="9">
-        <v>0.63936119679866199</v>
+        <v>9.3303608090840179E-2</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -4816,7 +5122,7 @@
         <v>10</v>
       </c>
       <c r="C55" s="9">
-        <v>0.7276652249339215</v>
+        <v>0.17986162511887499</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -4827,7 +5133,7 @@
         <v>10</v>
       </c>
       <c r="C56" s="9">
-        <v>0.50874458305083525</v>
+        <v>-3.6433049040363569E-2</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -4838,7 +5144,7 @@
         <v>10</v>
       </c>
       <c r="C57" s="9">
-        <v>0.54489469960073844</v>
+        <v>-8.3815490399954181E-4</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -4849,7 +5155,7 @@
         <v>10</v>
       </c>
       <c r="C58" s="9">
-        <v>1.3461323830544829</v>
+        <v>0.75924659551189322</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -4860,7 +5166,7 @@
         <v>10</v>
       </c>
       <c r="C59" s="9">
-        <v>0.67782257032566129</v>
+        <v>8.9232369573600534E-2</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -4871,7 +5177,7 @@
         <v>10</v>
       </c>
       <c r="C60" s="9">
-        <v>1.47503870663738</v>
+        <v>0.75924090229979102</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
@@ -4882,7 +5188,7 @@
         <v>10</v>
       </c>
       <c r="C61" s="9">
-        <v>1.1318948563251201</v>
+        <v>0.41851756463533502</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -4893,7 +5199,7 @@
         <v>30</v>
       </c>
       <c r="C62" s="9">
-        <v>2.5395905173539548</v>
+        <v>1.9862671970501899</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
@@ -4904,7 +5210,7 @@
         <v>30</v>
       </c>
       <c r="C63" s="9">
-        <v>0.61908943363943547</v>
+        <v>7.1296467918751022E-2</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
@@ -4915,7 +5221,7 @@
         <v>30</v>
       </c>
       <c r="C64" s="9">
-        <v>0.47942405778834574</v>
+        <v>-6.5430613620616265E-2</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -4926,7 +5232,7 @@
         <v>30</v>
       </c>
       <c r="C65" s="9">
-        <v>1.7150550110328193</v>
+        <v>1.1652391123385739</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -4937,7 +5243,7 @@
         <v>30</v>
       </c>
       <c r="C66" s="9">
-        <v>-2.0721579508418677</v>
+        <v>-2.6048116480439734</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
@@ -4948,7 +5254,7 @@
         <v>30</v>
       </c>
       <c r="C67" s="9">
-        <v>-0.45889535264663572</v>
+        <v>-0.99442517376091577</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
@@ -4959,7 +5265,7 @@
         <v>30</v>
       </c>
       <c r="C68" s="9">
-        <v>2.3626943896684884</v>
+        <v>1.8178776407883253</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
@@ -4970,7 +5276,7 @@
         <v>30</v>
       </c>
       <c r="C69" s="9">
-        <v>-1.7128973569193877</v>
+        <v>-2.2574717835721367</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
@@ -4981,7 +5287,7 @@
         <v>30</v>
       </c>
       <c r="C70" s="9">
-        <v>1.9129085508572508E-2</v>
+        <v>-0.5242197089294417</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
@@ -4992,7 +5298,7 @@
         <v>30</v>
       </c>
       <c r="C71" s="9">
-        <v>0.2169186748295126</v>
+        <v>-0.32709527712017999</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
@@ -5003,7 +5309,7 @@
         <v>30</v>
       </c>
       <c r="C72" s="9">
-        <v>-1.6722232908240042E-2</v>
+        <v>-0.55916745223930275</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
@@ -5014,7 +5320,7 @@
         <v>30</v>
       </c>
       <c r="C73" s="9">
-        <v>2.0031843128727722</v>
+        <v>1.4593888594154691</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
@@ -5025,7 +5331,7 @@
         <v>30</v>
       </c>
       <c r="C74" s="9">
-        <v>1.2517674264492666</v>
+        <v>0.70281748823024448</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
@@ -5036,7 +5342,7 @@
         <v>30</v>
       </c>
       <c r="C75" s="9">
-        <v>1.0609853876089552</v>
+        <v>0.50940693783233026</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
@@ -5047,7 +5353,7 @@
         <v>30</v>
       </c>
       <c r="C76" s="9">
-        <v>0.5467399394876965</v>
+        <v>1.2829125968537476E-3</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
@@ -5058,7 +5364,7 @@
         <v>30</v>
       </c>
       <c r="C77" s="9">
-        <v>0.98391303343425385</v>
+        <v>0.43532880001869773</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
@@ -5069,7 +5375,7 @@
         <v>30</v>
       </c>
       <c r="C78" s="9">
-        <v>2.2945332831925134</v>
+        <v>1.7100157029871672</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
@@ -5080,7 +5386,7 @@
         <v>30</v>
       </c>
       <c r="C79" s="9">
-        <v>0.82746495042957335</v>
+        <v>0.23871356169880151</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
@@ -5091,7 +5397,7 @@
         <v>30</v>
       </c>
       <c r="C80" s="9">
-        <v>2.0212380480793199</v>
+        <v>1.3015873919043</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
@@ -5102,7 +5408,7 @@
         <v>30</v>
       </c>
       <c r="C81" s="9">
-        <v>1.8075953198010599</v>
+        <v>1.0894516844438</v>
       </c>
     </row>
   </sheetData>
